--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2849.840456487614</v>
+        <v>2995.472553642603</v>
       </c>
       <c r="AB2" t="n">
-        <v>3899.277438654215</v>
+        <v>4098.537698816366</v>
       </c>
       <c r="AC2" t="n">
-        <v>3527.135872579166</v>
+        <v>3707.379013174967</v>
       </c>
       <c r="AD2" t="n">
-        <v>2849840.456487614</v>
+        <v>2995472.553642603</v>
       </c>
       <c r="AE2" t="n">
-        <v>3899277.438654215</v>
+        <v>4098537.698816366</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.814737012608933e-07</v>
+        <v>1.321120065737843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.92881944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3527135.872579166</v>
+        <v>3707379.013174966</v>
       </c>
     </row>
     <row r="3">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1367.160003637544</v>
+        <v>1450.39062592817</v>
       </c>
       <c r="AB3" t="n">
-        <v>1870.60863181944</v>
+        <v>1984.488441113382</v>
       </c>
       <c r="AC3" t="n">
-        <v>1692.080369414296</v>
+        <v>1795.091649540541</v>
       </c>
       <c r="AD3" t="n">
-        <v>1367160.003637544</v>
+        <v>1450390.62592817</v>
       </c>
       <c r="AE3" t="n">
-        <v>1870608.63181944</v>
+        <v>1984488.441113382</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.231217885128722e-06</v>
+        <v>2.081434923164269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.45616319444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1692080.369414296</v>
+        <v>1795091.649540541</v>
       </c>
     </row>
     <row r="4">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1114.052747293552</v>
+        <v>1186.868885379597</v>
       </c>
       <c r="AB4" t="n">
-        <v>1524.296117385519</v>
+        <v>1623.926369936137</v>
       </c>
       <c r="AC4" t="n">
-        <v>1378.819435305282</v>
+        <v>1468.941116384407</v>
       </c>
       <c r="AD4" t="n">
-        <v>1114052.747293552</v>
+        <v>1186868.885379597</v>
       </c>
       <c r="AE4" t="n">
-        <v>1524296.117385519</v>
+        <v>1623926.369936137</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.40319811902628e-06</v>
+        <v>2.372176041573959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1378819.435305282</v>
+        <v>1468941.116384407</v>
       </c>
     </row>
     <row r="5">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1005.17586260964</v>
+        <v>1078.077252041706</v>
       </c>
       <c r="AB5" t="n">
-        <v>1375.32596045184</v>
+        <v>1475.072857655107</v>
       </c>
       <c r="AC5" t="n">
-        <v>1244.066781068424</v>
+        <v>1334.293974398261</v>
       </c>
       <c r="AD5" t="n">
-        <v>1005175.86260964</v>
+        <v>1078077.252041706</v>
       </c>
       <c r="AE5" t="n">
-        <v>1375325.960451839</v>
+        <v>1475072.857655107</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495443760226491e-06</v>
+        <v>2.528121874901198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.55034722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1244066.781068424</v>
+        <v>1334293.974398261</v>
       </c>
     </row>
     <row r="6">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>949.4127167053458</v>
+        <v>1011.899711441382</v>
       </c>
       <c r="AB6" t="n">
-        <v>1299.028364129211</v>
+        <v>1384.525827058703</v>
       </c>
       <c r="AC6" t="n">
-        <v>1175.050920254479</v>
+        <v>1252.388625318423</v>
       </c>
       <c r="AD6" t="n">
-        <v>949412.7167053458</v>
+        <v>1011899.711441382</v>
       </c>
       <c r="AE6" t="n">
-        <v>1299028.364129212</v>
+        <v>1384525.827058703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552116942623786e-06</v>
+        <v>2.62393070165184e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1175050.920254478</v>
+        <v>1252388.625318422</v>
       </c>
     </row>
     <row r="7">
@@ -5707,28 +5707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.3657801852917</v>
+        <v>974.181828762786</v>
       </c>
       <c r="AB7" t="n">
-        <v>1233.288425901234</v>
+        <v>1332.918555982303</v>
       </c>
       <c r="AC7" t="n">
-        <v>1115.585109464397</v>
+        <v>1205.706679762294</v>
       </c>
       <c r="AD7" t="n">
-        <v>901365.7801852917</v>
+        <v>974181.828762786</v>
       </c>
       <c r="AE7" t="n">
-        <v>1233288.425901234</v>
+        <v>1332918.555982303</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591424042770839e-06</v>
+        <v>2.690381304719418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.73220486111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1115585.109464396</v>
+        <v>1205706.679762295</v>
       </c>
     </row>
     <row r="8">
@@ -5813,28 +5813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>875.0073009477646</v>
+        <v>937.5795470298212</v>
       </c>
       <c r="AB8" t="n">
-        <v>1197.223591754415</v>
+        <v>1282.837699336556</v>
       </c>
       <c r="AC8" t="n">
-        <v>1082.962252471238</v>
+        <v>1160.405469785894</v>
       </c>
       <c r="AD8" t="n">
-        <v>875007.3009477647</v>
+        <v>937579.5470298212</v>
       </c>
       <c r="AE8" t="n">
-        <v>1197223.591754415</v>
+        <v>1282837.699336556</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.61793999631422e-06</v>
+        <v>2.735207839805386e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.52387152777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1082962.252471238</v>
+        <v>1160405.469785894</v>
       </c>
     </row>
     <row r="9">
@@ -5919,28 +5919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>853.4778433596341</v>
+        <v>915.8794972410985</v>
       </c>
       <c r="AB9" t="n">
-        <v>1167.766038069701</v>
+        <v>1253.146733876995</v>
       </c>
       <c r="AC9" t="n">
-        <v>1056.316086366256</v>
+        <v>1133.548168398261</v>
       </c>
       <c r="AD9" t="n">
-        <v>853477.8433596342</v>
+        <v>915879.4972410986</v>
       </c>
       <c r="AE9" t="n">
-        <v>1167766.038069701</v>
+        <v>1253146.733876995</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640441210412651e-06</v>
+        <v>2.773247258663547e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.35243055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1056316.086366256</v>
+        <v>1133548.168398261</v>
       </c>
     </row>
     <row r="10">
@@ -6025,28 +6025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>834.6612377216931</v>
+        <v>897.0628916031574</v>
       </c>
       <c r="AB10" t="n">
-        <v>1142.020328105817</v>
+        <v>1227.401023913111</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.027510826994</v>
+        <v>1110.259592858999</v>
       </c>
       <c r="AD10" t="n">
-        <v>834661.237721693</v>
+        <v>897062.8916031574</v>
       </c>
       <c r="AE10" t="n">
-        <v>1142020.328105817</v>
+        <v>1227401.023913111</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.658367488864514e-06</v>
+        <v>2.803552521820258e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.21788194444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033027.510826994</v>
+        <v>1110259.592859</v>
       </c>
     </row>
     <row r="11">
@@ -6131,28 +6131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>819.1060706727313</v>
+        <v>881.5077245541959</v>
       </c>
       <c r="AB11" t="n">
-        <v>1120.73706230389</v>
+        <v>1206.117758111184</v>
       </c>
       <c r="AC11" t="n">
-        <v>1013.775490041952</v>
+        <v>1091.007572073957</v>
       </c>
       <c r="AD11" t="n">
-        <v>819106.0706727314</v>
+        <v>881507.7245541959</v>
       </c>
       <c r="AE11" t="n">
-        <v>1120737.06230389</v>
+        <v>1206117.758111184</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.671438733568998e-06</v>
+        <v>2.825650109538693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1013775.490041952</v>
+        <v>1091007.572073957</v>
       </c>
     </row>
     <row r="12">
@@ -6237,28 +6237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>803.0196817112029</v>
+        <v>865.4213355926673</v>
       </c>
       <c r="AB12" t="n">
-        <v>1098.726955245333</v>
+        <v>1184.107651052627</v>
       </c>
       <c r="AC12" t="n">
-        <v>993.8659967096843</v>
+        <v>1071.098078741689</v>
       </c>
       <c r="AD12" t="n">
-        <v>803019.681711203</v>
+        <v>865421.3355926673</v>
       </c>
       <c r="AE12" t="n">
-        <v>1098726.955245333</v>
+        <v>1184107.651052627</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.683296219836636e-06</v>
+        <v>2.845695778397559e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>993865.9967096843</v>
+        <v>1071098.078741689</v>
       </c>
     </row>
     <row r="13">
@@ -6343,28 +6343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>780.5476020052514</v>
+        <v>853.278309728174</v>
       </c>
       <c r="AB13" t="n">
-        <v>1067.979664393462</v>
+        <v>1167.493027352334</v>
       </c>
       <c r="AC13" t="n">
-        <v>966.0531841426229</v>
+        <v>1056.069131408582</v>
       </c>
       <c r="AD13" t="n">
-        <v>780547.6020052515</v>
+        <v>853278.309728174</v>
       </c>
       <c r="AE13" t="n">
-        <v>1067979.664393462</v>
+        <v>1167493.027352334</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.691885894928154e-06</v>
+        <v>2.860217050326816e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.97482638888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>966053.1841426229</v>
+        <v>1056069.131408582</v>
       </c>
     </row>
     <row r="14">
@@ -6449,28 +6449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>766.7726741711756</v>
+        <v>839.5033818940983</v>
       </c>
       <c r="AB14" t="n">
-        <v>1049.132200423954</v>
+        <v>1148.645563382826</v>
       </c>
       <c r="AC14" t="n">
-        <v>949.0044956817821</v>
+        <v>1039.020442947742</v>
       </c>
       <c r="AD14" t="n">
-        <v>766772.6741711756</v>
+        <v>839503.3818940984</v>
       </c>
       <c r="AE14" t="n">
-        <v>1049132.200423954</v>
+        <v>1148645.563382826</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.700008739851654e-06</v>
+        <v>2.8739491226947e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.91840277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>949004.4956817821</v>
+        <v>1039020.442947742</v>
       </c>
     </row>
     <row r="15">
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>757.9151527743543</v>
+        <v>820.4020580018394</v>
       </c>
       <c r="AB15" t="n">
-        <v>1037.012948882558</v>
+        <v>1122.510289342501</v>
       </c>
       <c r="AC15" t="n">
-        <v>938.0418884980206</v>
+        <v>1015.379482780738</v>
       </c>
       <c r="AD15" t="n">
-        <v>757915.1527743543</v>
+        <v>820402.0580018393</v>
       </c>
       <c r="AE15" t="n">
-        <v>1037012.948882558</v>
+        <v>1122510.289342501</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.706264264103085e-06</v>
+        <v>2.884524396817094e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH15" t="n">
-        <v>938041.8884980206</v>
+        <v>1015379.482780738</v>
       </c>
     </row>
     <row r="16">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>743.7976317863042</v>
+        <v>806.2845370137893</v>
       </c>
       <c r="AB16" t="n">
-        <v>1017.696733845638</v>
+        <v>1103.194074305582</v>
       </c>
       <c r="AC16" t="n">
-        <v>920.5691859137467</v>
+        <v>997.9067801964641</v>
       </c>
       <c r="AD16" t="n">
-        <v>743797.6317863043</v>
+        <v>806284.5370137893</v>
       </c>
       <c r="AE16" t="n">
-        <v>1017696.733845638</v>
+        <v>1103194.074305582</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.713733546791361e-06</v>
+        <v>2.897151589799057e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>920569.1859137466</v>
+        <v>997906.780196464</v>
       </c>
     </row>
     <row r="17">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>733.4527576523471</v>
+        <v>795.9396628798321</v>
       </c>
       <c r="AB17" t="n">
-        <v>1003.542420671921</v>
+        <v>1089.039761131865</v>
       </c>
       <c r="AC17" t="n">
-        <v>907.7657405236258</v>
+        <v>985.1033348063432</v>
       </c>
       <c r="AD17" t="n">
-        <v>733452.7576523471</v>
+        <v>795939.6628798321</v>
       </c>
       <c r="AE17" t="n">
-        <v>1003542.420671921</v>
+        <v>1089039.761131865</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.718401848471534e-06</v>
+        <v>2.905043585412783e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.79036458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>907765.7405236259</v>
+        <v>985103.3348063432</v>
       </c>
     </row>
     <row r="18">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>722.5676775171894</v>
+        <v>785.0545827446742</v>
       </c>
       <c r="AB18" t="n">
-        <v>988.6489738151547</v>
+        <v>1074.146314275098</v>
       </c>
       <c r="AC18" t="n">
-        <v>894.2937033317851</v>
+        <v>971.6312976145026</v>
       </c>
       <c r="AD18" t="n">
-        <v>722567.6775171894</v>
+        <v>785054.5827446743</v>
       </c>
       <c r="AE18" t="n">
-        <v>988648.9738151547</v>
+        <v>1074146.314275098</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.722790052050896e-06</v>
+        <v>2.912462061289686e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.75998263888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>894293.703331785</v>
+        <v>971631.2976145026</v>
       </c>
     </row>
     <row r="19">
@@ -6979,28 +6979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>723.3665544542082</v>
+        <v>785.8534596816933</v>
       </c>
       <c r="AB19" t="n">
-        <v>989.742032484347</v>
+        <v>1075.23937294429</v>
       </c>
       <c r="AC19" t="n">
-        <v>895.2824420157073</v>
+        <v>972.6200362984246</v>
       </c>
       <c r="AD19" t="n">
-        <v>723366.5544542082</v>
+        <v>785853.4596816932</v>
       </c>
       <c r="AE19" t="n">
-        <v>989742.032484347</v>
+        <v>1075239.37294429</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.72344361428612e-06</v>
+        <v>2.913566940675608e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH19" t="n">
-        <v>895282.4420157073</v>
+        <v>972620.0362984246</v>
       </c>
     </row>
     <row r="20">
@@ -7085,28 +7085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>725.2178428819643</v>
+        <v>787.7047481094494</v>
       </c>
       <c r="AB20" t="n">
-        <v>992.2750469842841</v>
+        <v>1077.772387444227</v>
       </c>
       <c r="AC20" t="n">
-        <v>897.5737091668785</v>
+        <v>974.9113034495959</v>
       </c>
       <c r="AD20" t="n">
-        <v>725217.8428819643</v>
+        <v>787704.7481094494</v>
       </c>
       <c r="AE20" t="n">
-        <v>992275.0469842842</v>
+        <v>1077772.387444227</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.72316351618531e-06</v>
+        <v>2.913093420938784e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH20" t="n">
-        <v>897573.7091668785</v>
+        <v>974911.3034495959</v>
       </c>
     </row>
     <row r="21">
@@ -7191,28 +7191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>728.0441556233242</v>
+        <v>790.5310608508092</v>
       </c>
       <c r="AB21" t="n">
-        <v>996.1421327651308</v>
+        <v>1081.639473225074</v>
       </c>
       <c r="AC21" t="n">
-        <v>901.0717257082903</v>
+        <v>978.4093199910076</v>
       </c>
       <c r="AD21" t="n">
-        <v>728044.1556233242</v>
+        <v>790531.0608508092</v>
       </c>
       <c r="AE21" t="n">
-        <v>996142.1327651308</v>
+        <v>1081639.473225074</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.723070150151707e-06</v>
+        <v>2.912935581026509e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.75998263888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>901071.7257082902</v>
+        <v>978409.3199910076</v>
       </c>
     </row>
   </sheetData>
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1978.756681464477</v>
+        <v>2099.672813881655</v>
       </c>
       <c r="AB2" t="n">
-        <v>2707.422188163399</v>
+        <v>2872.864974979858</v>
       </c>
       <c r="AC2" t="n">
-        <v>2449.029614415991</v>
+        <v>2598.682773859097</v>
       </c>
       <c r="AD2" t="n">
-        <v>1978756.681464477</v>
+        <v>2099672.813881655</v>
       </c>
       <c r="AE2" t="n">
-        <v>2707422.188163399</v>
+        <v>2872864.974979858</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.593873026308784e-07</v>
+        <v>1.661458303389618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2449029.614415991</v>
+        <v>2598682.773859097</v>
       </c>
     </row>
     <row r="3">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1104.445369477885</v>
+        <v>1184.999320028174</v>
       </c>
       <c r="AB3" t="n">
-        <v>1511.150879210529</v>
+        <v>1621.368348142918</v>
       </c>
       <c r="AC3" t="n">
-        <v>1366.928760212254</v>
+        <v>1466.627228600926</v>
       </c>
       <c r="AD3" t="n">
-        <v>1104445.369477885</v>
+        <v>1184999.320028174</v>
       </c>
       <c r="AE3" t="n">
-        <v>1511150.879210528</v>
+        <v>1621368.348142918</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376058683235893e-06</v>
+        <v>2.383046053396948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.23220486111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1366928.760212254</v>
+        <v>1466627.228600926</v>
       </c>
     </row>
     <row r="4">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>924.2994715328327</v>
+        <v>994.9334464398536</v>
       </c>
       <c r="AB4" t="n">
-        <v>1264.667314165995</v>
+        <v>1361.311834784827</v>
       </c>
       <c r="AC4" t="n">
-        <v>1143.969240673715</v>
+        <v>1231.390143886122</v>
       </c>
       <c r="AD4" t="n">
-        <v>924299.4715328327</v>
+        <v>994933.4464398536</v>
       </c>
       <c r="AE4" t="n">
-        <v>1264667.314165995</v>
+        <v>1361311.834784827</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530596052027739e-06</v>
+        <v>2.650672478990765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.69357638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1143969.240673715</v>
+        <v>1231390.143886122</v>
       </c>
     </row>
     <row r="5">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>853.1175901759592</v>
+        <v>913.661086747671</v>
       </c>
       <c r="AB5" t="n">
-        <v>1167.273123770548</v>
+        <v>1250.111406770524</v>
       </c>
       <c r="AC5" t="n">
-        <v>1055.870215116005</v>
+        <v>1130.802528650723</v>
       </c>
       <c r="AD5" t="n">
-        <v>853117.5901759592</v>
+        <v>913661.086747671</v>
       </c>
       <c r="AE5" t="n">
-        <v>1167273.123770548</v>
+        <v>1250111.406770524</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.611052069654994e-06</v>
+        <v>2.790005486815546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.00998263888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1055870.215116005</v>
+        <v>1130802.528650723</v>
       </c>
     </row>
     <row r="6">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>801.9561962003286</v>
+        <v>872.5048302527777</v>
       </c>
       <c r="AB6" t="n">
-        <v>1097.271847451685</v>
+        <v>1193.799600948319</v>
       </c>
       <c r="AC6" t="n">
-        <v>992.5497623616053</v>
+        <v>1079.865042542074</v>
       </c>
       <c r="AD6" t="n">
-        <v>801956.1962003285</v>
+        <v>872504.8302527777</v>
       </c>
       <c r="AE6" t="n">
-        <v>1097271.847451685</v>
+        <v>1193799.600948319</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.658475724702992e-06</v>
+        <v>2.872133346169649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>992549.7623616053</v>
+        <v>1079865.042542074</v>
       </c>
     </row>
     <row r="7">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>770.97390184182</v>
+        <v>831.4320575589603</v>
       </c>
       <c r="AB7" t="n">
-        <v>1054.880505468014</v>
+        <v>1137.602021345791</v>
       </c>
       <c r="AC7" t="n">
-        <v>954.2041905602333</v>
+        <v>1029.030881063013</v>
       </c>
       <c r="AD7" t="n">
-        <v>770973.90184182</v>
+        <v>831432.0575589603</v>
       </c>
       <c r="AE7" t="n">
-        <v>1054880.505468013</v>
+        <v>1137602.021345791</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.692763703403682e-06</v>
+        <v>2.931512959348277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>954204.1905602333</v>
+        <v>1029030.881063013</v>
       </c>
     </row>
     <row r="8">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>746.8511195903087</v>
+        <v>807.3092753074491</v>
       </c>
       <c r="AB8" t="n">
-        <v>1021.874650569452</v>
+        <v>1104.59616644723</v>
       </c>
       <c r="AC8" t="n">
-        <v>924.3483681291823</v>
+        <v>999.1750586319621</v>
       </c>
       <c r="AD8" t="n">
-        <v>746851.1195903088</v>
+        <v>807309.275307449</v>
       </c>
       <c r="AE8" t="n">
-        <v>1021874.650569452</v>
+        <v>1104596.16644723</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.719324813664781e-06</v>
+        <v>2.977511251247215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.19184027777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>924348.3681291823</v>
+        <v>999175.058631962</v>
       </c>
     </row>
     <row r="9">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>725.0937293856329</v>
+        <v>785.5518851027731</v>
       </c>
       <c r="AB9" t="n">
-        <v>992.1052294231023</v>
+        <v>1074.826745300881</v>
       </c>
       <c r="AC9" t="n">
-        <v>897.4200987553955</v>
+        <v>972.2467892581753</v>
       </c>
       <c r="AD9" t="n">
-        <v>725093.7293856329</v>
+        <v>785551.8851027731</v>
       </c>
       <c r="AE9" t="n">
-        <v>992105.2294231023</v>
+        <v>1074826.745300881</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.737676126208813e-06</v>
+        <v>3.00929188928648e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.06163194444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>897420.0987553955</v>
+        <v>972246.7892581753</v>
       </c>
     </row>
     <row r="10">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>698.2466487543522</v>
+        <v>768.70994195223</v>
       </c>
       <c r="AB10" t="n">
-        <v>955.3718692937782</v>
+        <v>1051.782855668215</v>
       </c>
       <c r="AC10" t="n">
-        <v>864.1925189612193</v>
+        <v>951.4021761097489</v>
       </c>
       <c r="AD10" t="n">
-        <v>698246.6487543522</v>
+        <v>768709.9419522299</v>
       </c>
       <c r="AE10" t="n">
-        <v>955371.8692937782</v>
+        <v>1051782.855668215</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.751681075255574e-06</v>
+        <v>3.033545534105921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>864192.5189612193</v>
+        <v>951402.1761097489</v>
       </c>
     </row>
     <row r="11">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>679.2052610699722</v>
+        <v>739.7486681331329</v>
       </c>
       <c r="AB11" t="n">
-        <v>929.3186026172723</v>
+        <v>1012.1567631477</v>
       </c>
       <c r="AC11" t="n">
-        <v>840.6257394903298</v>
+        <v>915.5579422438216</v>
       </c>
       <c r="AD11" t="n">
-        <v>679205.2610699722</v>
+        <v>739748.668133133</v>
       </c>
       <c r="AE11" t="n">
-        <v>929318.6026172723</v>
+        <v>1012156.7631477</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765686024302335e-06</v>
+        <v>3.05779917892536e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.87065972222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>840625.7394903298</v>
+        <v>915557.9422438216</v>
       </c>
     </row>
     <row r="12">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>664.1832968718912</v>
+        <v>724.7267039350519</v>
       </c>
       <c r="AB12" t="n">
-        <v>908.7648884791702</v>
+        <v>991.6030490095974</v>
       </c>
       <c r="AC12" t="n">
-        <v>822.0336429822489</v>
+        <v>896.9658457357409</v>
       </c>
       <c r="AD12" t="n">
-        <v>664183.2968718912</v>
+        <v>724726.7039350519</v>
       </c>
       <c r="AE12" t="n">
-        <v>908764.8884791702</v>
+        <v>991603.0490095974</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.773992407874896e-06</v>
+        <v>3.072184099301027e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.81640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>822033.6429822489</v>
+        <v>896965.845735741</v>
       </c>
     </row>
     <row r="13">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>655.6386173592765</v>
+        <v>716.1820244224372</v>
       </c>
       <c r="AB13" t="n">
-        <v>897.0736810053552</v>
+        <v>979.9118415357827</v>
       </c>
       <c r="AC13" t="n">
-        <v>811.4582279410223</v>
+        <v>886.3904306945143</v>
       </c>
       <c r="AD13" t="n">
-        <v>655638.6173592765</v>
+        <v>716182.0244224372</v>
       </c>
       <c r="AE13" t="n">
-        <v>897073.6810053552</v>
+        <v>979911.8415357828</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.77998073091558e-06</v>
+        <v>3.082554623292788e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.77517361111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>811458.2279410223</v>
+        <v>886390.4306945143</v>
       </c>
     </row>
     <row r="14">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>652.2028864699662</v>
+        <v>712.746293533127</v>
       </c>
       <c r="AB14" t="n">
-        <v>892.3727624288517</v>
+        <v>975.2109229592792</v>
       </c>
       <c r="AC14" t="n">
-        <v>807.2059584356796</v>
+        <v>882.1381611891716</v>
       </c>
       <c r="AD14" t="n">
-        <v>652202.8864699661</v>
+        <v>712746.2935331269</v>
       </c>
       <c r="AE14" t="n">
-        <v>892372.7624288517</v>
+        <v>975210.9229592792</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.782395377302953e-06</v>
+        <v>3.086736286192691e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.75998263888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>807205.9584356796</v>
+        <v>882138.1611891716</v>
       </c>
     </row>
     <row r="15">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>654.9976912040327</v>
+        <v>715.5410982671934</v>
       </c>
       <c r="AB15" t="n">
-        <v>896.1967375640843</v>
+        <v>979.0348980945117</v>
       </c>
       <c r="AC15" t="n">
-        <v>810.6649787509883</v>
+        <v>885.5971815044803</v>
       </c>
       <c r="AD15" t="n">
-        <v>654997.6912040326</v>
+        <v>715541.0982671934</v>
       </c>
       <c r="AE15" t="n">
-        <v>896196.7375640842</v>
+        <v>979034.8980945117</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.782491963158448e-06</v>
+        <v>3.086903552708687e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.75998263888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>810664.9787509884</v>
+        <v>885597.1815044803</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>803.8299230064455</v>
+        <v>876.5822557075761</v>
       </c>
       <c r="AB2" t="n">
-        <v>1099.835563130807</v>
+        <v>1199.37851433889</v>
       </c>
       <c r="AC2" t="n">
-        <v>994.8688006145094</v>
+        <v>1084.911512268703</v>
       </c>
       <c r="AD2" t="n">
-        <v>803829.9230064455</v>
+        <v>876582.2557075761</v>
       </c>
       <c r="AE2" t="n">
-        <v>1099835.563130807</v>
+        <v>1199378.51433889</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.523194594636568e-06</v>
+        <v>2.88221194887002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.35590277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>994868.8006145094</v>
+        <v>1084911.512268703</v>
       </c>
     </row>
     <row r="3">
@@ -9269,28 +9269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.4220159139416</v>
+        <v>645.1442343483775</v>
       </c>
       <c r="AB3" t="n">
-        <v>795.5272527024744</v>
+        <v>882.7148031903405</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.603248234061</v>
+        <v>798.469741271861</v>
       </c>
       <c r="AD3" t="n">
-        <v>581422.0159139415</v>
+        <v>645144.2343483774</v>
       </c>
       <c r="AE3" t="n">
-        <v>795527.2527024744</v>
+        <v>882714.8031903405</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.814727983053176e-06</v>
+        <v>3.433855854742333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.88845486111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>719603.2482340609</v>
+        <v>798469.741271861</v>
       </c>
     </row>
     <row r="4">
@@ -9375,28 +9375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.0253227225757</v>
+        <v>571.6322650528473</v>
       </c>
       <c r="AB4" t="n">
-        <v>707.4168560964504</v>
+        <v>782.1324836809986</v>
       </c>
       <c r="AC4" t="n">
-        <v>639.9019842163979</v>
+        <v>707.4868571683187</v>
       </c>
       <c r="AD4" t="n">
-        <v>517025.3227225757</v>
+        <v>571632.2650528473</v>
       </c>
       <c r="AE4" t="n">
-        <v>707416.8560964504</v>
+        <v>782132.4836809986</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917222715912397e-06</v>
+        <v>3.6277979451248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.19835069444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>639901.9842163979</v>
+        <v>707486.8571683187</v>
       </c>
     </row>
     <row r="5">
@@ -9481,28 +9481,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.3957366882485</v>
+        <v>552.0026790185202</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.5587904880671</v>
+        <v>755.2744180726153</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.6072146941467</v>
+        <v>683.1920876460676</v>
       </c>
       <c r="AD5" t="n">
-        <v>497395.7366882485</v>
+        <v>552002.6790185202</v>
       </c>
       <c r="AE5" t="n">
-        <v>680558.7904880671</v>
+        <v>755274.4180726153</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.944597754972589e-06</v>
+        <v>3.67959740985366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.02690972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>615607.2146941466</v>
+        <v>683192.0876460676</v>
       </c>
     </row>
     <row r="6">
@@ -9587,28 +9587,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>499.3008194091501</v>
+        <v>553.9077617394217</v>
       </c>
       <c r="AB6" t="n">
-        <v>683.1654087131226</v>
+        <v>757.8810362976708</v>
       </c>
       <c r="AC6" t="n">
-        <v>617.9650609342146</v>
+        <v>685.5499338861356</v>
       </c>
       <c r="AD6" t="n">
-        <v>499300.8194091501</v>
+        <v>553907.7617394218</v>
       </c>
       <c r="AE6" t="n">
-        <v>683165.4087131226</v>
+        <v>757881.0362976708</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.947184372836544e-06</v>
+        <v>3.684491847465836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>617965.0609342146</v>
+        <v>685549.9338861356</v>
       </c>
     </row>
   </sheetData>
@@ -9884,28 +9884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.974778816593</v>
+        <v>1211.273863626753</v>
       </c>
       <c r="AB2" t="n">
-        <v>1540.608366878254</v>
+        <v>1657.318337845548</v>
       </c>
       <c r="AC2" t="n">
-        <v>1393.574866600816</v>
+        <v>1499.146201742464</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125974.778816593</v>
+        <v>1211273.863626753</v>
       </c>
       <c r="AE2" t="n">
-        <v>1540608.366878254</v>
+        <v>1657318.337845548</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297275094801728e-06</v>
+        <v>2.36335348729534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.24826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1393574.866600816</v>
+        <v>1499146.201742464</v>
       </c>
     </row>
     <row r="3">
@@ -9990,28 +9990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.2576094917266</v>
+        <v>819.7340249445339</v>
       </c>
       <c r="AB3" t="n">
-        <v>1030.640292686959</v>
+        <v>1121.596257041957</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.2774296656503</v>
+        <v>1014.552684440106</v>
       </c>
       <c r="AD3" t="n">
-        <v>753257.6094917266</v>
+        <v>819734.0249445338</v>
       </c>
       <c r="AE3" t="n">
-        <v>1030640.292686959</v>
+        <v>1121596.257041957</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641338597532087e-06</v>
+        <v>2.990162467354516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>932277.4296656502</v>
+        <v>1014552.684440106</v>
       </c>
     </row>
     <row r="4">
@@ -10096,28 +10096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>659.6162784575556</v>
+        <v>726.0073530557911</v>
       </c>
       <c r="AB4" t="n">
-        <v>902.5160924020437</v>
+        <v>993.3552896348447</v>
       </c>
       <c r="AC4" t="n">
-        <v>816.3812232324829</v>
+        <v>898.5508549749995</v>
       </c>
       <c r="AD4" t="n">
-        <v>659616.2784575556</v>
+        <v>726007.3530557911</v>
       </c>
       <c r="AE4" t="n">
-        <v>902516.0924020436</v>
+        <v>993355.2896348446</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.760838028057853e-06</v>
+        <v>3.20786447750992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70616319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>816381.2232324829</v>
+        <v>898550.8549749996</v>
       </c>
     </row>
     <row r="5">
@@ -10202,28 +10202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>612.8032188828615</v>
+        <v>669.6977522106757</v>
       </c>
       <c r="AB5" t="n">
-        <v>838.4643990455168</v>
+        <v>916.3100095542949</v>
       </c>
       <c r="AC5" t="n">
-        <v>758.4425335927867</v>
+        <v>828.8586682916078</v>
       </c>
       <c r="AD5" t="n">
-        <v>612803.2188828615</v>
+        <v>669697.7522106757</v>
       </c>
       <c r="AE5" t="n">
-        <v>838464.3990455167</v>
+        <v>916310.0095542949</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825175944061373e-06</v>
+        <v>3.325074187895574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>758442.5335927868</v>
+        <v>828858.6682916079</v>
       </c>
     </row>
     <row r="6">
@@ -10308,28 +10308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.2538498888551</v>
+        <v>637.1483832166695</v>
       </c>
       <c r="AB6" t="n">
-        <v>793.9289164111034</v>
+        <v>871.7745269198816</v>
       </c>
       <c r="AC6" t="n">
-        <v>718.1574549150594</v>
+        <v>788.5735896138805</v>
       </c>
       <c r="AD6" t="n">
-        <v>580253.8498888551</v>
+        <v>637148.3832166694</v>
       </c>
       <c r="AE6" t="n">
-        <v>793928.9164111033</v>
+        <v>871774.5269198816</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.861881549986458e-06</v>
+        <v>3.391943830359184e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>718157.4549150594</v>
+        <v>788573.5896138805</v>
       </c>
     </row>
     <row r="7">
@@ -10414,28 +10414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>548.4113395132346</v>
+        <v>614.7170732568985</v>
       </c>
       <c r="AB7" t="n">
-        <v>750.3605889227665</v>
+        <v>841.0830190333701</v>
       </c>
       <c r="AC7" t="n">
-        <v>678.747227453678</v>
+        <v>760.8112361642557</v>
       </c>
       <c r="AD7" t="n">
-        <v>548411.3395132346</v>
+        <v>614717.0732568986</v>
       </c>
       <c r="AE7" t="n">
-        <v>750360.5889227665</v>
+        <v>841083.0190333701</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.88332752198763e-06</v>
+        <v>3.431013733821068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>678747.2274536779</v>
+        <v>760811.2361642556</v>
       </c>
     </row>
     <row r="8">
@@ -10520,28 +10520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>547.498720446652</v>
+        <v>604.4785051204867</v>
       </c>
       <c r="AB8" t="n">
-        <v>749.1119032539567</v>
+        <v>827.0741584153842</v>
       </c>
       <c r="AC8" t="n">
-        <v>677.6177145925581</v>
+        <v>748.139361542091</v>
       </c>
       <c r="AD8" t="n">
-        <v>547498.720446652</v>
+        <v>604478.5051204867</v>
       </c>
       <c r="AE8" t="n">
-        <v>749111.9032539567</v>
+        <v>827074.1584153842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.88528652904543e-06</v>
+        <v>3.434582619233452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.86848958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>677617.7145925581</v>
+        <v>748139.361542091</v>
       </c>
     </row>
   </sheetData>
@@ -10817,28 +10817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.2116157757906</v>
+        <v>669.7449141992413</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.1819651071897</v>
+        <v>916.3745386676902</v>
       </c>
       <c r="AC2" t="n">
-        <v>752.7596863320824</v>
+        <v>828.9170388369879</v>
       </c>
       <c r="AD2" t="n">
-        <v>608211.6157757906</v>
+        <v>669744.9141992413</v>
       </c>
       <c r="AE2" t="n">
-        <v>832181.9651071897</v>
+        <v>916374.5386676902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71595096416553e-06</v>
+        <v>3.362711009561287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.15581597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>752759.6863320824</v>
+        <v>828917.0388369879</v>
       </c>
     </row>
     <row r="3">
@@ -10923,28 +10923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.1325716212718</v>
+        <v>515.8632200776551</v>
       </c>
       <c r="AB3" t="n">
-        <v>633.678416459269</v>
+        <v>705.8268159893197</v>
       </c>
       <c r="AC3" t="n">
-        <v>573.2010377656391</v>
+        <v>638.4636953054564</v>
       </c>
       <c r="AD3" t="n">
-        <v>463132.5716212718</v>
+        <v>515863.2200776552</v>
       </c>
       <c r="AE3" t="n">
-        <v>633678.416459269</v>
+        <v>705826.8159893197</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959631671862096e-06</v>
+        <v>3.840246682608575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>573201.037765639</v>
+        <v>638463.6953054564</v>
       </c>
     </row>
     <row r="4">
@@ -11029,28 +11029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.4590874463946</v>
+        <v>504.189735902778</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.7062404134272</v>
+        <v>689.8546399434777</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.7532237845222</v>
+        <v>624.0158813243396</v>
       </c>
       <c r="AD4" t="n">
-        <v>451459.0874463946</v>
+        <v>504189.735902778</v>
       </c>
       <c r="AE4" t="n">
-        <v>617706.2404134271</v>
+        <v>689854.6399434777</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.982578178558374e-06</v>
+        <v>3.88521444235809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>558753.2237845223</v>
+        <v>624015.8813243397</v>
       </c>
     </row>
   </sheetData>
@@ -11326,28 +11326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2169.829474901818</v>
+        <v>2291.852611927442</v>
       </c>
       <c r="AB2" t="n">
-        <v>2968.856413681089</v>
+        <v>3135.8138530406</v>
       </c>
       <c r="AC2" t="n">
-        <v>2685.512924375512</v>
+        <v>2836.536180048672</v>
       </c>
       <c r="AD2" t="n">
-        <v>2169829.474901818</v>
+        <v>2291852.611927442</v>
       </c>
       <c r="AE2" t="n">
-        <v>2968856.413681089</v>
+        <v>3135813.8530406</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116204385678212e-07</v>
+        <v>1.568425832736776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2685512.924375512</v>
+        <v>2836536.180048672</v>
       </c>
     </row>
     <row r="3">
@@ -11432,28 +11432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1164.161030414674</v>
+        <v>1245.566682334803</v>
       </c>
       <c r="AB3" t="n">
-        <v>1592.856480973271</v>
+        <v>1704.239285294288</v>
       </c>
       <c r="AC3" t="n">
-        <v>1440.836494017293</v>
+        <v>1541.58907982066</v>
       </c>
       <c r="AD3" t="n">
-        <v>1164161.030414674</v>
+        <v>1245566.682334803</v>
       </c>
       <c r="AE3" t="n">
-        <v>1592856.480973271</v>
+        <v>1704239.285294289</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.338140878956125e-06</v>
+        <v>2.302246234949614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52300347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1440836.494017293</v>
+        <v>1541589.07982066</v>
       </c>
     </row>
     <row r="4">
@@ -11538,28 +11538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>967.7415355377906</v>
+        <v>1048.976505748776</v>
       </c>
       <c r="AB4" t="n">
-        <v>1324.10666266618</v>
+        <v>1435.255932742802</v>
       </c>
       <c r="AC4" t="n">
-        <v>1197.735781176693</v>
+        <v>1298.277120916182</v>
       </c>
       <c r="AD4" t="n">
-        <v>967741.5355377906</v>
+        <v>1048976.505748776</v>
       </c>
       <c r="AE4" t="n">
-        <v>1324106.66266618</v>
+        <v>1435255.932742802</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497607452943315e-06</v>
+        <v>2.576605478685384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.86935763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1197735.781176693</v>
+        <v>1298277.120916182</v>
       </c>
     </row>
     <row r="5">
@@ -11644,28 +11644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>891.1196699011037</v>
+        <v>952.1739983497514</v>
       </c>
       <c r="AB5" t="n">
-        <v>1219.269245783925</v>
+        <v>1302.806471494236</v>
       </c>
       <c r="AC5" t="n">
-        <v>1102.90390022144</v>
+        <v>1178.468450355192</v>
       </c>
       <c r="AD5" t="n">
-        <v>891119.6699011037</v>
+        <v>952173.9983497513</v>
       </c>
       <c r="AE5" t="n">
-        <v>1219269.245783925</v>
+        <v>1302806.471494236</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.580403723350829e-06</v>
+        <v>2.719054905955156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1102903.90022144</v>
+        <v>1178468.450355192</v>
       </c>
     </row>
     <row r="6">
@@ -11750,28 +11750,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>835.0908351577165</v>
+        <v>906.2354397332573</v>
       </c>
       <c r="AB6" t="n">
-        <v>1142.608122270285</v>
+        <v>1239.951308928977</v>
       </c>
       <c r="AC6" t="n">
-        <v>1033.55920674138</v>
+        <v>1121.612096287387</v>
       </c>
       <c r="AD6" t="n">
-        <v>835090.8351577164</v>
+        <v>906235.4397332573</v>
       </c>
       <c r="AE6" t="n">
-        <v>1142608.122270285</v>
+        <v>1239951.308928977</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631612977302297e-06</v>
+        <v>2.807159465017963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.73003472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1033559.20674138</v>
+        <v>1121612.096287387</v>
       </c>
     </row>
     <row r="7">
@@ -11856,28 +11856,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>802.6933807775309</v>
+        <v>863.6623683716069</v>
       </c>
       <c r="AB7" t="n">
-        <v>1098.280495912501</v>
+        <v>1181.700954500615</v>
       </c>
       <c r="AC7" t="n">
-        <v>993.4621468289687</v>
+        <v>1068.921073930782</v>
       </c>
       <c r="AD7" t="n">
-        <v>802693.380777531</v>
+        <v>863662.3683716069</v>
       </c>
       <c r="AE7" t="n">
-        <v>1098280.495912501</v>
+        <v>1181700.954500615</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.667890187110908e-06</v>
+        <v>2.869573722746569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.45442708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>993462.1468289687</v>
+        <v>1068921.073930782</v>
       </c>
     </row>
     <row r="8">
@@ -11962,28 +11962,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>778.5802412416821</v>
+        <v>839.5492288357581</v>
       </c>
       <c r="AB8" t="n">
-        <v>1065.287834602916</v>
+        <v>1148.708293191029</v>
       </c>
       <c r="AC8" t="n">
-        <v>963.6182588092789</v>
+        <v>1039.077185911092</v>
       </c>
       <c r="AD8" t="n">
-        <v>778580.2412416821</v>
+        <v>839549.2288357581</v>
       </c>
       <c r="AE8" t="n">
-        <v>1065287.834602916</v>
+        <v>1148708.293191029</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693734109665854e-06</v>
+        <v>2.914037705824995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.26345486111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>963618.258809279</v>
+        <v>1039077.185911092</v>
       </c>
     </row>
     <row r="9">
@@ -12068,28 +12068,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>758.9472843620855</v>
+        <v>819.9162719561616</v>
       </c>
       <c r="AB9" t="n">
-        <v>1038.425156855324</v>
+        <v>1121.845615443437</v>
       </c>
       <c r="AC9" t="n">
-        <v>939.3193173239121</v>
+        <v>1014.778244425725</v>
       </c>
       <c r="AD9" t="n">
-        <v>758947.2843620855</v>
+        <v>819916.2719561616</v>
       </c>
       <c r="AE9" t="n">
-        <v>1038425.156855324</v>
+        <v>1121845.615443437</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.712399164844427e-06</v>
+        <v>2.946150582492747e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.13107638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>939319.3173239121</v>
+        <v>1014778.244425725</v>
       </c>
     </row>
     <row r="10">
@@ -12174,28 +12174,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>740.7292337291395</v>
+        <v>801.6982213232155</v>
       </c>
       <c r="AB10" t="n">
-        <v>1013.498416255657</v>
+        <v>1096.91887484377</v>
       </c>
       <c r="AC10" t="n">
-        <v>916.7715498621774</v>
+        <v>992.2304769639902</v>
       </c>
       <c r="AD10" t="n">
-        <v>740729.2337291396</v>
+        <v>801698.2213232155</v>
       </c>
       <c r="AE10" t="n">
-        <v>1013498.416255657</v>
+        <v>1096918.87484377</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.72780980014571e-06</v>
+        <v>2.972664290920994e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.02256944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>916771.5498621773</v>
+        <v>992230.4769639903</v>
       </c>
     </row>
     <row r="11">
@@ -12280,28 +12280,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>711.2815363080888</v>
+        <v>782.3408000290582</v>
       </c>
       <c r="AB11" t="n">
-        <v>973.2067775034541</v>
+        <v>1070.433197039948</v>
       </c>
       <c r="AC11" t="n">
-        <v>880.3252885628146</v>
+        <v>968.2725550768828</v>
       </c>
       <c r="AD11" t="n">
-        <v>711281.5363080888</v>
+        <v>782340.8000290582</v>
       </c>
       <c r="AE11" t="n">
-        <v>973206.7775034541</v>
+        <v>1070433.197039949</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.740827479654868e-06</v>
+        <v>2.995060963879016e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.93142361111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>880325.2885628147</v>
+        <v>968272.5550768828</v>
       </c>
     </row>
     <row r="12">
@@ -12386,28 +12386,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>696.2281959672292</v>
+        <v>757.2824349073256</v>
       </c>
       <c r="AB12" t="n">
-        <v>952.6101331425842</v>
+        <v>1036.147236383347</v>
       </c>
       <c r="AC12" t="n">
-        <v>861.6943590321744</v>
+        <v>937.2587983846994</v>
       </c>
       <c r="AD12" t="n">
-        <v>696228.1959672292</v>
+        <v>757282.4349073257</v>
       </c>
       <c r="AE12" t="n">
-        <v>952610.1331425842</v>
+        <v>1036147.236383347</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.749920711664942e-06</v>
+        <v>3.010705698665869e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.87065972222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>861694.3590321743</v>
+        <v>937258.7983846994</v>
       </c>
     </row>
     <row r="13">
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>684.4768605476672</v>
+        <v>745.5310994877638</v>
       </c>
       <c r="AB13" t="n">
-        <v>936.53143758921</v>
+        <v>1020.068540829973</v>
       </c>
       <c r="AC13" t="n">
-        <v>847.1501916158232</v>
+        <v>922.7146309683483</v>
       </c>
       <c r="AD13" t="n">
-        <v>684476.8605476673</v>
+        <v>745531.0994877637</v>
       </c>
       <c r="AE13" t="n">
-        <v>936531.43758921</v>
+        <v>1020068.540829973</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.759013943675016e-06</v>
+        <v>3.026350433452723e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>847150.1916158232</v>
+        <v>922714.6309683482</v>
       </c>
     </row>
     <row r="14">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>675.4250501395618</v>
+        <v>736.4792890796582</v>
       </c>
       <c r="AB14" t="n">
-        <v>924.1463512511486</v>
+        <v>1007.683454491911</v>
       </c>
       <c r="AC14" t="n">
-        <v>835.9471205352885</v>
+        <v>911.5115598878136</v>
       </c>
       <c r="AD14" t="n">
-        <v>675425.0501395618</v>
+        <v>736479.2890796582</v>
       </c>
       <c r="AE14" t="n">
-        <v>924146.3512511486</v>
+        <v>1007683.454491911</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.76408700995432e-06</v>
+        <v>3.035078548649599e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.77517361111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>835947.1205352885</v>
+        <v>911511.5598878136</v>
       </c>
     </row>
     <row r="15">
@@ -12704,28 +12704,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>673.8933898459823</v>
+        <v>734.9476287860789</v>
       </c>
       <c r="AB15" t="n">
-        <v>922.0506660653903</v>
+        <v>1005.587769306153</v>
       </c>
       <c r="AC15" t="n">
-        <v>834.0514446023462</v>
+        <v>909.6158839548714</v>
       </c>
       <c r="AD15" t="n">
-        <v>673893.3898459823</v>
+        <v>734947.6287860789</v>
       </c>
       <c r="AE15" t="n">
-        <v>922050.6660653902</v>
+        <v>1005587.769306153</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.765331346966225e-06</v>
+        <v>3.037219407094116e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.76649305555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>834051.4446023463</v>
+        <v>909615.8839548713</v>
       </c>
     </row>
     <row r="16">
@@ -12810,28 +12810,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>674.9854813540672</v>
+        <v>736.0397202941638</v>
       </c>
       <c r="AB16" t="n">
-        <v>923.5449138464289</v>
+        <v>1007.082017087192</v>
       </c>
       <c r="AC16" t="n">
-        <v>835.4030834723525</v>
+        <v>910.9675228248777</v>
       </c>
       <c r="AD16" t="n">
-        <v>674985.4813540672</v>
+        <v>736039.7202941638</v>
       </c>
       <c r="AE16" t="n">
-        <v>923544.913846429</v>
+        <v>1007082.017087192</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.76523562873454e-06</v>
+        <v>3.037054725675307e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.76649305555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>835403.0834723525</v>
+        <v>910967.5228248778</v>
       </c>
     </row>
   </sheetData>
@@ -13107,28 +13107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.0998131658185</v>
+        <v>564.4221415462675</v>
       </c>
       <c r="AB2" t="n">
-        <v>689.7316036876587</v>
+        <v>772.2672746110967</v>
       </c>
       <c r="AC2" t="n">
-        <v>623.9045874760934</v>
+        <v>698.5631698061401</v>
       </c>
       <c r="AD2" t="n">
-        <v>504099.8131658186</v>
+        <v>564422.1415462676</v>
       </c>
       <c r="AE2" t="n">
-        <v>689731.6036876587</v>
+        <v>772267.2746110967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.837977251780358e-06</v>
+        <v>3.684520169747513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.52647569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>623904.5874760934</v>
+        <v>698563.1698061401</v>
       </c>
     </row>
     <row r="3">
@@ -13213,28 +13213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.2271940447924</v>
+        <v>474.8467955962994</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.0781183581213</v>
+        <v>649.7063344969901</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.8117154832649</v>
+        <v>587.6992738011642</v>
       </c>
       <c r="AD3" t="n">
-        <v>423227.1940447924</v>
+        <v>474846.7955962995</v>
       </c>
       <c r="AE3" t="n">
-        <v>579078.1183581213</v>
+        <v>649706.3344969901</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994569018884362e-06</v>
+        <v>3.998433480563647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46310763888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>523811.715483265</v>
+        <v>587699.2738011641</v>
       </c>
     </row>
     <row r="4">
@@ -13319,28 +13319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.120647431749</v>
+        <v>478.7402489832562</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.4053130491959</v>
+        <v>655.0335291880649</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.6304901897882</v>
+        <v>592.5180485076875</v>
       </c>
       <c r="AD4" t="n">
-        <v>427120.647431749</v>
+        <v>478740.2489832562</v>
       </c>
       <c r="AE4" t="n">
-        <v>584405.3130491959</v>
+        <v>655033.5291880649</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.994454467481945e-06</v>
+        <v>3.998203843906137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.46310763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>528630.4901897883</v>
+        <v>592518.0485076875</v>
       </c>
     </row>
   </sheetData>
@@ -13616,28 +13616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1506.820819414377</v>
+        <v>1604.792744656934</v>
       </c>
       <c r="AB2" t="n">
-        <v>2061.698721365645</v>
+        <v>2195.748231698807</v>
       </c>
       <c r="AC2" t="n">
-        <v>1864.933089010837</v>
+        <v>1986.189102217471</v>
       </c>
       <c r="AD2" t="n">
-        <v>1506820.819414377</v>
+        <v>1604792.744656934</v>
       </c>
       <c r="AE2" t="n">
-        <v>2061698.721365645</v>
+        <v>2195748.231698807</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114549636891813e-06</v>
+        <v>1.973950225663671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1864933.089010837</v>
+        <v>1986189.102217471</v>
       </c>
     </row>
     <row r="3">
@@ -13722,28 +13722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>925.0556507647912</v>
+        <v>993.6701616289753</v>
       </c>
       <c r="AB3" t="n">
-        <v>1265.701951951433</v>
+        <v>1359.583352774391</v>
       </c>
       <c r="AC3" t="n">
-        <v>1144.905134081035</v>
+        <v>1229.826625772822</v>
       </c>
       <c r="AD3" t="n">
-        <v>925055.6507647912</v>
+        <v>993670.1616289753</v>
       </c>
       <c r="AE3" t="n">
-        <v>1265701.951951433</v>
+        <v>1359583.35277439</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498671208177741e-06</v>
+        <v>2.654258071294186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1144905.134081035</v>
+        <v>1229826.625772822</v>
       </c>
     </row>
     <row r="4">
@@ -13828,28 +13828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>796.5596977294709</v>
+        <v>855.4452977039116</v>
       </c>
       <c r="AB4" t="n">
-        <v>1089.888120167147</v>
+        <v>1170.457995901501</v>
       </c>
       <c r="AC4" t="n">
-        <v>985.8707276459781</v>
+        <v>1058.751127520776</v>
       </c>
       <c r="AD4" t="n">
-        <v>796559.6977294709</v>
+        <v>855445.2977039116</v>
       </c>
       <c r="AE4" t="n">
-        <v>1089888.120167147</v>
+        <v>1170457.995901501</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.638089426149654e-06</v>
+        <v>2.901178095058007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>985870.7276459781</v>
+        <v>1058751.127520776</v>
       </c>
     </row>
     <row r="5">
@@ -13934,28 +13934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>730.1047241093653</v>
+        <v>798.7191454649982</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.9614934735978</v>
+        <v>1092.842771827006</v>
       </c>
       <c r="AC5" t="n">
-        <v>903.6220105877388</v>
+        <v>988.5433914982997</v>
       </c>
       <c r="AD5" t="n">
-        <v>730104.7241093653</v>
+        <v>798719.1454649982</v>
       </c>
       <c r="AE5" t="n">
-        <v>998961.4934735978</v>
+        <v>1092842.771827006</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.710435639187186e-06</v>
+        <v>3.029308614170284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.62586805555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>903622.0105877388</v>
+        <v>988543.3914982997</v>
       </c>
     </row>
     <row r="6">
@@ -14040,28 +14040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>694.806664288596</v>
+        <v>753.606923408465</v>
       </c>
       <c r="AB6" t="n">
-        <v>950.6651307863266</v>
+        <v>1031.118239398483</v>
       </c>
       <c r="AC6" t="n">
-        <v>859.9349849709698</v>
+        <v>932.7097618138289</v>
       </c>
       <c r="AD6" t="n">
-        <v>694806.664288596</v>
+        <v>753606.923408465</v>
       </c>
       <c r="AE6" t="n">
-        <v>950665.1307863266</v>
+        <v>1031118.239398482</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.752529790651939e-06</v>
+        <v>3.10386048430026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.32204861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>859934.9849709698</v>
+        <v>932709.7618138288</v>
       </c>
     </row>
     <row r="7">
@@ -14146,28 +14146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>666.4062047818187</v>
+        <v>725.2064639016878</v>
       </c>
       <c r="AB7" t="n">
-        <v>911.8063691493086</v>
+        <v>992.2594777614644</v>
       </c>
       <c r="AC7" t="n">
-        <v>824.7848490059744</v>
+        <v>897.5596258488334</v>
       </c>
       <c r="AD7" t="n">
-        <v>666406.2047818187</v>
+        <v>725206.4639016878</v>
       </c>
       <c r="AE7" t="n">
-        <v>911806.3691493085</v>
+        <v>992259.4777614644</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.783478445747774e-06</v>
+        <v>3.158672852173599e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>824784.8490059744</v>
+        <v>897559.6258488335</v>
       </c>
     </row>
     <row r="8">
@@ -14252,28 +14252,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>633.8577359706409</v>
+        <v>702.3868164717023</v>
       </c>
       <c r="AB8" t="n">
-        <v>867.2721181847546</v>
+        <v>961.0366294159654</v>
       </c>
       <c r="AC8" t="n">
-        <v>784.5008844492637</v>
+        <v>869.3166423278858</v>
       </c>
       <c r="AD8" t="n">
-        <v>633857.7359706409</v>
+        <v>702386.8164717023</v>
       </c>
       <c r="AE8" t="n">
-        <v>867272.1181847546</v>
+        <v>961036.6294159654</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.805570411764737e-06</v>
+        <v>3.197799365575147e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>784500.8844492637</v>
+        <v>869316.6423278858</v>
       </c>
     </row>
     <row r="9">
@@ -14358,28 +14358,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>614.1795744963083</v>
+        <v>673.0650849621981</v>
       </c>
       <c r="AB9" t="n">
-        <v>840.3475895163588</v>
+        <v>920.9173427811639</v>
       </c>
       <c r="AC9" t="n">
-        <v>760.1459950081663</v>
+        <v>833.0262841017376</v>
       </c>
       <c r="AD9" t="n">
-        <v>614179.5744963083</v>
+        <v>673065.084962198</v>
       </c>
       <c r="AE9" t="n">
-        <v>840347.5895163588</v>
+        <v>920917.342781164</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.820596929190689e-06</v>
+        <v>3.224412444510434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>760145.9950081663</v>
+        <v>833026.2841017375</v>
       </c>
     </row>
     <row r="10">
@@ -14464,28 +14464,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>602.9623732728783</v>
+        <v>661.8478837387679</v>
       </c>
       <c r="AB10" t="n">
-        <v>824.9997199344698</v>
+        <v>905.569473199275</v>
       </c>
       <c r="AC10" t="n">
-        <v>746.2629045583024</v>
+        <v>819.1431936518736</v>
       </c>
       <c r="AD10" t="n">
-        <v>602962.3732728782</v>
+        <v>661847.8837387679</v>
       </c>
       <c r="AE10" t="n">
-        <v>824999.7199344698</v>
+        <v>905569.473199275</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.82855799802563e-06</v>
+        <v>3.23851208897946e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>746262.9045583024</v>
+        <v>819143.1936518736</v>
       </c>
     </row>
     <row r="11">
@@ -14570,28 +14570,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>603.6660304444981</v>
+        <v>662.5515409103879</v>
       </c>
       <c r="AB11" t="n">
-        <v>825.9624947198437</v>
+        <v>906.532247984649</v>
       </c>
       <c r="AC11" t="n">
-        <v>747.133793469423</v>
+        <v>820.0140825629943</v>
       </c>
       <c r="AD11" t="n">
-        <v>603666.0304444982</v>
+        <v>662551.5409103879</v>
       </c>
       <c r="AE11" t="n">
-        <v>825962.4947198437</v>
+        <v>906532.2479846489</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.830747291955239e-06</v>
+        <v>3.242389491208443e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>747133.7934694231</v>
+        <v>820014.0825629943</v>
       </c>
     </row>
   </sheetData>
@@ -14867,28 +14867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1804.15257149264</v>
+        <v>1914.09133927015</v>
       </c>
       <c r="AB2" t="n">
-        <v>2468.52114191025</v>
+        <v>2618.944214139567</v>
       </c>
       <c r="AC2" t="n">
-        <v>2232.928948717518</v>
+        <v>2368.995854053377</v>
       </c>
       <c r="AD2" t="n">
-        <v>1804152.57149264</v>
+        <v>1914091.339270151</v>
       </c>
       <c r="AE2" t="n">
-        <v>2468521.14191025</v>
+        <v>2618944.214139567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009158816070615e-06</v>
+        <v>1.759884856282262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.96788194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2232928.948717518</v>
+        <v>2368995.854053377</v>
       </c>
     </row>
     <row r="3">
@@ -14973,28 +14973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.530868940486</v>
+        <v>1116.46306163652</v>
       </c>
       <c r="AB3" t="n">
-        <v>1418.227263398955</v>
+        <v>1527.594015805132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1282.873643874624</v>
+        <v>1381.802586928356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036530.868940486</v>
+        <v>1116463.06163652</v>
       </c>
       <c r="AE3" t="n">
-        <v>1418227.263398955</v>
+        <v>1527594.015805132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415259924180191e-06</v>
+        <v>2.468089728399713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95008680555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1282873.643874624</v>
+        <v>1381802.586928356</v>
       </c>
     </row>
     <row r="4">
@@ -15079,28 +15079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>881.4030945333241</v>
+        <v>951.4184363901035</v>
       </c>
       <c r="AB4" t="n">
-        <v>1205.974598700677</v>
+        <v>1301.772678288004</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.878075596663</v>
+        <v>1177.533320921625</v>
       </c>
       <c r="AD4" t="n">
-        <v>881403.094533324</v>
+        <v>951418.4363901034</v>
       </c>
       <c r="AE4" t="n">
-        <v>1205974.598700677</v>
+        <v>1301772.678288004</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.565024942681105e-06</v>
+        <v>2.729266843303052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.51996527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090878.075596663</v>
+        <v>1177533.320921625</v>
       </c>
     </row>
     <row r="5">
@@ -15185,28 +15185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>806.5998479115119</v>
+        <v>876.5298489137197</v>
       </c>
       <c r="AB5" t="n">
-        <v>1103.625496586381</v>
+        <v>1199.306809051511</v>
       </c>
       <c r="AC5" t="n">
-        <v>998.2970281402887</v>
+        <v>1084.846650433312</v>
       </c>
       <c r="AD5" t="n">
-        <v>806599.8479115119</v>
+        <v>876529.8489137196</v>
       </c>
       <c r="AE5" t="n">
-        <v>1103625.496586381</v>
+        <v>1199306.809051511</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642247530345639e-06</v>
+        <v>2.863936293175086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.88411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>998297.0281402887</v>
+        <v>1084846.650433312</v>
       </c>
     </row>
     <row r="6">
@@ -15291,28 +15291,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>764.9020538976326</v>
+        <v>825.0005449151581</v>
       </c>
       <c r="AB6" t="n">
-        <v>1046.57273523975</v>
+        <v>1128.802142008229</v>
       </c>
       <c r="AC6" t="n">
-        <v>946.689302262527</v>
+        <v>1021.070849858719</v>
       </c>
       <c r="AD6" t="n">
-        <v>764902.0538976326</v>
+        <v>825000.5449151581</v>
       </c>
       <c r="AE6" t="n">
-        <v>1046572.73523975</v>
+        <v>1128802.142008229</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.690901660704986e-06</v>
+        <v>2.948784848081835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>946689.3022625271</v>
+        <v>1021070.849858719</v>
       </c>
     </row>
     <row r="7">
@@ -15397,28 +15397,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>735.3741786763937</v>
+        <v>795.3020774933269</v>
       </c>
       <c r="AB7" t="n">
-        <v>1006.171393684135</v>
+        <v>1088.167388677766</v>
       </c>
       <c r="AC7" t="n">
-        <v>910.1438080413405</v>
+        <v>984.3142203548816</v>
       </c>
       <c r="AD7" t="n">
-        <v>735374.1786763937</v>
+        <v>795302.077493327</v>
       </c>
       <c r="AE7" t="n">
-        <v>1006171.393684134</v>
+        <v>1088167.388677766</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.724345281372833e-06</v>
+        <v>3.007107602256213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>910143.8080413406</v>
+        <v>984314.2203548816</v>
       </c>
     </row>
     <row r="8">
@@ -15503,28 +15503,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>713.787876756264</v>
+        <v>773.7157755731971</v>
       </c>
       <c r="AB8" t="n">
-        <v>976.6360630765837</v>
+        <v>1058.632058070215</v>
       </c>
       <c r="AC8" t="n">
-        <v>883.4272879338773</v>
+        <v>957.5977002474185</v>
       </c>
       <c r="AD8" t="n">
-        <v>713787.876756264</v>
+        <v>773715.7755731971</v>
       </c>
       <c r="AE8" t="n">
-        <v>976636.0630765837</v>
+        <v>1058632.058070215</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746576026306562e-06</v>
+        <v>3.045876080249677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.11371527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>883427.2879338773</v>
+        <v>957597.7002474185</v>
       </c>
     </row>
     <row r="9">
@@ -15609,28 +15609,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>693.5230261001788</v>
+        <v>753.4509249171118</v>
       </c>
       <c r="AB9" t="n">
-        <v>948.9088003868138</v>
+        <v>1030.904795380445</v>
       </c>
       <c r="AC9" t="n">
-        <v>858.3462762797616</v>
+        <v>932.5166885933027</v>
       </c>
       <c r="AD9" t="n">
-        <v>693523.0261001787</v>
+        <v>753450.9249171119</v>
       </c>
       <c r="AE9" t="n">
-        <v>948908.8003868138</v>
+        <v>1030904.795380445</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7629565752051e-06</v>
+        <v>3.07444232719223e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.00303819444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>858346.2762797616</v>
+        <v>932516.6885933026</v>
       </c>
     </row>
     <row r="10">
@@ -15715,28 +15715,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>664.2740088859641</v>
+        <v>734.1186690336004</v>
       </c>
       <c r="AB10" t="n">
-        <v>908.8890046587563</v>
+        <v>1004.453550001689</v>
       </c>
       <c r="AC10" t="n">
-        <v>822.1459136878536</v>
+        <v>908.5899129489383</v>
       </c>
       <c r="AD10" t="n">
-        <v>664274.0088859642</v>
+        <v>734118.6690336005</v>
       </c>
       <c r="AE10" t="n">
-        <v>908889.0046587563</v>
+        <v>1004453.550001689</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.778947111034625e-06</v>
+        <v>3.102328425398056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>822145.9136878536</v>
+        <v>908589.9129489383</v>
       </c>
     </row>
     <row r="11">
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>645.9009581152501</v>
+        <v>705.9141082782038</v>
       </c>
       <c r="AB11" t="n">
-        <v>883.7501860324719</v>
+        <v>965.8628256787529</v>
       </c>
       <c r="AC11" t="n">
-        <v>799.4063086287082</v>
+        <v>873.6822331929617</v>
       </c>
       <c r="AD11" t="n">
-        <v>645900.9581152501</v>
+        <v>705914.1082782038</v>
       </c>
       <c r="AE11" t="n">
-        <v>883750.1860324719</v>
+        <v>965862.8256787529</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.789574967165223e-06</v>
+        <v>3.120862478473878e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>799406.3086287082</v>
+        <v>873682.2331929617</v>
       </c>
     </row>
     <row r="12">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>639.2365962025453</v>
+        <v>699.2497463654992</v>
       </c>
       <c r="AB12" t="n">
-        <v>874.6317120526119</v>
+        <v>956.7443516988928</v>
       </c>
       <c r="AC12" t="n">
-        <v>791.1580890076275</v>
+        <v>865.434013571881</v>
       </c>
       <c r="AD12" t="n">
-        <v>639236.5962025453</v>
+        <v>699249.7463654992</v>
       </c>
       <c r="AE12" t="n">
-        <v>874631.7120526119</v>
+        <v>956744.3516988929</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.795132653398656e-06</v>
+        <v>3.130554597972244e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.78602430555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>791158.0890076275</v>
+        <v>865434.013571881</v>
       </c>
     </row>
     <row r="13">
@@ -16033,28 +16033,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>636.0636612031428</v>
+        <v>696.0768113660969</v>
       </c>
       <c r="AB13" t="n">
-        <v>870.2903624064165</v>
+        <v>952.4030020526975</v>
       </c>
       <c r="AC13" t="n">
-        <v>787.2310716785427</v>
+        <v>861.506996242796</v>
       </c>
       <c r="AD13" t="n">
-        <v>636063.6612031428</v>
+        <v>696076.8113660968</v>
       </c>
       <c r="AE13" t="n">
-        <v>870290.3624064166</v>
+        <v>952403.0020526975</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.797667738347239e-06</v>
+        <v>3.134975564760972e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>787231.0716785426</v>
+        <v>861506.9962427961</v>
       </c>
     </row>
   </sheetData>
@@ -16330,28 +16330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2597.134178418058</v>
+        <v>2731.435366773528</v>
       </c>
       <c r="AB2" t="n">
-        <v>3553.513560385269</v>
+        <v>3737.270371243502</v>
       </c>
       <c r="AC2" t="n">
-        <v>3214.371213569571</v>
+        <v>3380.590532303791</v>
       </c>
       <c r="AD2" t="n">
-        <v>2597134.178418058</v>
+        <v>2731435.366773528</v>
       </c>
       <c r="AE2" t="n">
-        <v>3553513.560385269</v>
+        <v>3737270.371243502</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239541059955601e-07</v>
+        <v>1.400667371498039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.78732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3214371.213569571</v>
+        <v>3380590.532303791</v>
       </c>
     </row>
     <row r="3">
@@ -16436,28 +16436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1301.201278662708</v>
+        <v>1383.815429907482</v>
       </c>
       <c r="AB3" t="n">
-        <v>1780.360994415294</v>
+        <v>1893.397320827519</v>
       </c>
       <c r="AC3" t="n">
-        <v>1610.445839860647</v>
+        <v>1712.694137927569</v>
       </c>
       <c r="AD3" t="n">
-        <v>1301201.278662708</v>
+        <v>1383815.429907482</v>
       </c>
       <c r="AE3" t="n">
-        <v>1780360.994415294</v>
+        <v>1893397.320827519</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.265435397968738e-06</v>
+        <v>2.151156308071117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.13932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1610445.839860647</v>
+        <v>1712694.137927569</v>
       </c>
     </row>
     <row r="4">
@@ -16542,28 +16542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1067.074538936615</v>
+        <v>1139.35126485754</v>
       </c>
       <c r="AB4" t="n">
-        <v>1460.018460179277</v>
+        <v>1558.910665208392</v>
       </c>
       <c r="AC4" t="n">
-        <v>1320.676347488545</v>
+        <v>1410.130419265763</v>
       </c>
       <c r="AD4" t="n">
-        <v>1067074.538936615</v>
+        <v>1139351.26485754</v>
       </c>
       <c r="AE4" t="n">
-        <v>1460018.460179277</v>
+        <v>1558910.665208392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.433990715368858e-06</v>
+        <v>2.437689176415263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.24262152777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1320676.347488545</v>
+        <v>1410130.419265763</v>
       </c>
     </row>
     <row r="5">
@@ -16648,28 +16648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>965.7695471922356</v>
+        <v>1037.960932258589</v>
       </c>
       <c r="AB5" t="n">
-        <v>1321.408501213806</v>
+        <v>1420.183939120724</v>
       </c>
       <c r="AC5" t="n">
-        <v>1195.295128466439</v>
+        <v>1284.643577211719</v>
       </c>
       <c r="AD5" t="n">
-        <v>965769.5471922356</v>
+        <v>1037960.932258589</v>
       </c>
       <c r="AE5" t="n">
-        <v>1321408.501213806</v>
+        <v>1420183.939120724</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.523679837357866e-06</v>
+        <v>2.590154739526357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1195295.128466439</v>
+        <v>1284643.577211719</v>
       </c>
     </row>
     <row r="6">
@@ -16754,28 +16754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>905.936656770032</v>
+        <v>978.2132931824059</v>
       </c>
       <c r="AB6" t="n">
-        <v>1239.542500897318</v>
+        <v>1338.434583456885</v>
       </c>
       <c r="AC6" t="n">
-        <v>1121.242304320504</v>
+        <v>1210.696265316495</v>
       </c>
       <c r="AD6" t="n">
-        <v>905936.656770032</v>
+        <v>978213.2931824059</v>
       </c>
       <c r="AE6" t="n">
-        <v>1239542.500897318</v>
+        <v>1338434.583456885</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576006334551873e-06</v>
+        <v>2.679106316745422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.96006944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1121242.304320504</v>
+        <v>1210696.265316495</v>
       </c>
     </row>
     <row r="7">
@@ -16860,28 +16860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>869.7625275335497</v>
+        <v>942.0391639459235</v>
       </c>
       <c r="AB7" t="n">
-        <v>1190.047461386014</v>
+        <v>1288.93954394558</v>
       </c>
       <c r="AC7" t="n">
-        <v>1076.471001913434</v>
+        <v>1165.924962909425</v>
       </c>
       <c r="AD7" t="n">
-        <v>869762.5275335497</v>
+        <v>942039.1639459236</v>
       </c>
       <c r="AE7" t="n">
-        <v>1190047.461386014</v>
+        <v>1288939.54394558</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.614874757827278e-06</v>
+        <v>2.745180060255266e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.64756944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1076471.001913434</v>
+        <v>1165924.962909425</v>
       </c>
     </row>
     <row r="8">
@@ -16966,28 +16966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>841.5616137779296</v>
+        <v>903.5009143750052</v>
       </c>
       <c r="AB8" t="n">
-        <v>1151.461727049066</v>
+        <v>1236.209810695072</v>
       </c>
       <c r="AC8" t="n">
-        <v>1041.567835906186</v>
+        <v>1118.2276813937</v>
       </c>
       <c r="AD8" t="n">
-        <v>841561.6137779296</v>
+        <v>903500.9143750052</v>
       </c>
       <c r="AE8" t="n">
-        <v>1151461.727049066</v>
+        <v>1236209.810695072</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64282614211976e-06</v>
+        <v>2.792695561035953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.43272569444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1041567.835906186</v>
+        <v>1118227.6813937</v>
       </c>
     </row>
     <row r="9">
@@ -17072,28 +17072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>820.5984508125123</v>
+        <v>882.5377514095879</v>
       </c>
       <c r="AB9" t="n">
-        <v>1122.779002650303</v>
+        <v>1207.52708629631</v>
       </c>
       <c r="AC9" t="n">
-        <v>1015.622550467585</v>
+        <v>1092.282395955099</v>
       </c>
       <c r="AD9" t="n">
-        <v>820598.4508125123</v>
+        <v>882537.7514095879</v>
       </c>
       <c r="AE9" t="n">
-        <v>1122779.002650303</v>
+        <v>1207527.086296309</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.664283770465504e-06</v>
+        <v>2.829172107089814e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1015622.550467585</v>
+        <v>1092282.395955099</v>
       </c>
     </row>
     <row r="10">
@@ -17178,28 +17178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>804.7744633411212</v>
+        <v>866.7137639381967</v>
       </c>
       <c r="AB10" t="n">
-        <v>1101.127924886889</v>
+        <v>1185.876008532895</v>
       </c>
       <c r="AC10" t="n">
-        <v>996.0378211784322</v>
+        <v>1072.697666665946</v>
       </c>
       <c r="AD10" t="n">
-        <v>804774.4633411212</v>
+        <v>866713.7639381967</v>
       </c>
       <c r="AE10" t="n">
-        <v>1101127.924886889</v>
+        <v>1185876.008532895</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.680000542104711e-06</v>
+        <v>2.855889577225756e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.15711805555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>996037.8211784322</v>
+        <v>1072697.666665946</v>
       </c>
     </row>
     <row r="11">
@@ -17284,28 +17284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>788.3424573755951</v>
+        <v>850.2817579726707</v>
       </c>
       <c r="AB11" t="n">
-        <v>1078.644929395915</v>
+        <v>1163.393013041922</v>
       </c>
       <c r="AC11" t="n">
-        <v>975.7005712220353</v>
+        <v>1052.360416709549</v>
       </c>
       <c r="AD11" t="n">
-        <v>788342.4573755951</v>
+        <v>850281.7579726707</v>
       </c>
       <c r="AE11" t="n">
-        <v>1078644.929395915</v>
+        <v>1163393.013041922</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.693176278808238e-06</v>
+        <v>2.878287456381636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.06163194444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>975700.5712220352</v>
+        <v>1052360.416709549</v>
       </c>
     </row>
     <row r="12">
@@ -17390,28 +17390,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>762.4662827444035</v>
+        <v>834.6575783022058</v>
       </c>
       <c r="AB12" t="n">
-        <v>1043.240005689263</v>
+        <v>1142.015321126632</v>
       </c>
       <c r="AC12" t="n">
-        <v>943.674643742823</v>
+        <v>1033.022981706875</v>
       </c>
       <c r="AD12" t="n">
-        <v>762466.2827444036</v>
+        <v>834657.5783022058</v>
       </c>
       <c r="AE12" t="n">
-        <v>1043240.005689263</v>
+        <v>1142015.321126632</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.704846217031362e-06</v>
+        <v>2.898125577919701e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>943674.643742823</v>
+        <v>1033022.981706876</v>
       </c>
     </row>
     <row r="13">
@@ -17496,28 +17496,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>749.1112765090089</v>
+        <v>821.3025720668114</v>
       </c>
       <c r="AB13" t="n">
-        <v>1024.967096976703</v>
+        <v>1123.742412414073</v>
       </c>
       <c r="AC13" t="n">
-        <v>927.1456757916017</v>
+        <v>1016.494013755654</v>
       </c>
       <c r="AD13" t="n">
-        <v>749111.276509009</v>
+        <v>821302.5720668114</v>
       </c>
       <c r="AE13" t="n">
-        <v>1024967.096976703</v>
+        <v>1123742.412414073</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.713786895508755e-06</v>
+        <v>2.913324138775476e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.91623263888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>927145.6757916017</v>
+        <v>1016494.013755654</v>
       </c>
     </row>
     <row r="14">
@@ -17602,28 +17602,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>736.6429129834983</v>
+        <v>798.6674649265944</v>
       </c>
       <c r="AB14" t="n">
-        <v>1007.907331935722</v>
+        <v>1092.772060234378</v>
       </c>
       <c r="AC14" t="n">
-        <v>911.7140707826013</v>
+        <v>988.4794285208272</v>
       </c>
       <c r="AD14" t="n">
-        <v>736642.9129834983</v>
+        <v>798667.4649265944</v>
       </c>
       <c r="AE14" t="n">
-        <v>1007907.331935722</v>
+        <v>1092772.060234378</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.721221775505745e-06</v>
+        <v>2.925962942013437e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.86631944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>911714.0707826014</v>
+        <v>988479.4285208272</v>
       </c>
     </row>
     <row r="15">
@@ -17708,28 +17708,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>722.8580915028367</v>
+        <v>784.8826434459329</v>
       </c>
       <c r="AB15" t="n">
-        <v>989.0463310424781</v>
+        <v>1073.911059341134</v>
       </c>
       <c r="AC15" t="n">
-        <v>894.6531373430274</v>
+        <v>971.4184950812532</v>
       </c>
       <c r="AD15" t="n">
-        <v>722858.0915028367</v>
+        <v>784882.6434459329</v>
       </c>
       <c r="AE15" t="n">
-        <v>989046.3310424781</v>
+        <v>1073911.059341134</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.727621419047458e-06</v>
+        <v>2.93684191188915e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.82074652777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>894653.1373430274</v>
+        <v>971418.4950812532</v>
       </c>
     </row>
     <row r="16">
@@ -17814,28 +17814,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>712.3056062488372</v>
+        <v>774.3301581919333</v>
       </c>
       <c r="AB16" t="n">
-        <v>974.6079551751631</v>
+        <v>1059.472683473819</v>
       </c>
       <c r="AC16" t="n">
-        <v>881.5927398041009</v>
+        <v>958.3580975423268</v>
       </c>
       <c r="AD16" t="n">
-        <v>712305.6062488372</v>
+        <v>774330.1581919333</v>
       </c>
       <c r="AE16" t="n">
-        <v>974607.9551751631</v>
+        <v>1059472.683473819</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.732797601323844e-06</v>
+        <v>2.945641078700388e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.78602430555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>881592.7398041009</v>
+        <v>958358.0975423269</v>
       </c>
     </row>
     <row r="17">
@@ -17920,28 +17920,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>705.4097019136509</v>
+        <v>767.4342538567471</v>
       </c>
       <c r="AB17" t="n">
-        <v>965.172674637933</v>
+        <v>1050.037402936588</v>
       </c>
       <c r="AC17" t="n">
-        <v>873.0579491988447</v>
+        <v>949.8233069370706</v>
       </c>
       <c r="AD17" t="n">
-        <v>705409.701913651</v>
+        <v>767434.2538567471</v>
       </c>
       <c r="AE17" t="n">
-        <v>965172.674637933</v>
+        <v>1050037.402936589</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.737597333980129e-06</v>
+        <v>2.953800306107173e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.75347222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>873057.9491988446</v>
+        <v>949823.3069370706</v>
       </c>
     </row>
     <row r="18">
@@ -18026,28 +18026,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>706.1706012685602</v>
+        <v>768.1951532116562</v>
       </c>
       <c r="AB18" t="n">
-        <v>966.2137707038302</v>
+        <v>1051.078499002486</v>
       </c>
       <c r="AC18" t="n">
-        <v>873.9996845174003</v>
+        <v>950.7650422556261</v>
       </c>
       <c r="AD18" t="n">
-        <v>706170.6012685602</v>
+        <v>768195.1532116563</v>
       </c>
       <c r="AE18" t="n">
-        <v>966213.7707038302</v>
+        <v>1051078.499002486</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>2.953640321256059e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.75564236111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>873999.6845174003</v>
+        <v>950765.0422556261</v>
       </c>
     </row>
     <row r="19">
@@ -18132,28 +18132,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>708.5434626304937</v>
+        <v>770.5680145735899</v>
       </c>
       <c r="AB19" t="n">
-        <v>969.4604243024828</v>
+        <v>1054.325152601138</v>
       </c>
       <c r="AC19" t="n">
-        <v>876.9364820533045</v>
+        <v>953.7018397915303</v>
       </c>
       <c r="AD19" t="n">
-        <v>708543.4626304937</v>
+        <v>770568.0145735899</v>
       </c>
       <c r="AE19" t="n">
-        <v>969460.4243024829</v>
+        <v>1054325.152601138</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>2.953640321256059e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.75347222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>876936.4820533046</v>
+        <v>953701.8397915304</v>
       </c>
     </row>
   </sheetData>
@@ -18429,28 +18429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1238.39115155095</v>
+        <v>1334.301933453347</v>
       </c>
       <c r="AB2" t="n">
-        <v>1694.421407513745</v>
+        <v>1825.650770597673</v>
       </c>
       <c r="AC2" t="n">
-        <v>1532.708206516014</v>
+        <v>1651.413223368779</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238391.15155095</v>
+        <v>1334301.933453347</v>
       </c>
       <c r="AE2" t="n">
-        <v>1694421.407513745</v>
+        <v>1825650.770597673</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.232575127603093e-06</v>
+        <v>2.22262463157566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1532708.206516014</v>
+        <v>1651413.223368779</v>
       </c>
     </row>
     <row r="3">
@@ -18535,28 +18535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.6816978123409</v>
+        <v>883.3761869924297</v>
       </c>
       <c r="AB3" t="n">
-        <v>1103.737487231658</v>
+        <v>1208.674270849921</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.3983305555604</v>
+        <v>1093.320094824997</v>
       </c>
       <c r="AD3" t="n">
-        <v>806681.6978123409</v>
+        <v>883376.1869924297</v>
       </c>
       <c r="AE3" t="n">
-        <v>1103737.487231658</v>
+        <v>1208674.270849921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.591270169280418e-06</v>
+        <v>2.869436673293903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88454861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>998398.3305555604</v>
+        <v>1093320.094824997</v>
       </c>
     </row>
     <row r="4">
@@ -18641,28 +18641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>701.916384955359</v>
+        <v>769.0880686288652</v>
       </c>
       <c r="AB4" t="n">
-        <v>960.3929642613306</v>
+        <v>1052.300225268959</v>
       </c>
       <c r="AC4" t="n">
-        <v>868.7344076722195</v>
+        <v>951.870168681931</v>
       </c>
       <c r="AD4" t="n">
-        <v>701916.384955359</v>
+        <v>769088.0686288653</v>
       </c>
       <c r="AE4" t="n">
-        <v>960392.9642613305</v>
+        <v>1052300.225268959</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.717928310593672e-06</v>
+        <v>3.097831274456973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.86241319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>868734.4076722196</v>
+        <v>951870.168681931</v>
       </c>
     </row>
     <row r="5">
@@ -18747,28 +18747,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>652.3229302319689</v>
+        <v>709.8865570528724</v>
       </c>
       <c r="AB5" t="n">
-        <v>892.5370115999812</v>
+        <v>971.2981053443256</v>
       </c>
       <c r="AC5" t="n">
-        <v>807.3545318964416</v>
+        <v>878.598777395715</v>
       </c>
       <c r="AD5" t="n">
-        <v>652322.930231969</v>
+        <v>709886.5570528724</v>
       </c>
       <c r="AE5" t="n">
-        <v>892537.0115999811</v>
+        <v>971298.1053443255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.784617283712788e-06</v>
+        <v>3.218087274265502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.38064236111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>807354.5318964416</v>
+        <v>878598.777395715</v>
       </c>
     </row>
     <row r="6">
@@ -18853,28 +18853,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>618.1142439521499</v>
+        <v>675.6778707730532</v>
       </c>
       <c r="AB6" t="n">
-        <v>845.7311778512064</v>
+        <v>924.492271595551</v>
       </c>
       <c r="AC6" t="n">
-        <v>765.0157812282497</v>
+        <v>836.2600267275232</v>
       </c>
       <c r="AD6" t="n">
-        <v>618114.2439521499</v>
+        <v>675677.8707730531</v>
       </c>
       <c r="AE6" t="n">
-        <v>845731.1778512064</v>
+        <v>924492.2715955509</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.823917961001306e-06</v>
+        <v>3.288955695526712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.11371527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>765015.7812282497</v>
+        <v>836260.0267275232</v>
       </c>
     </row>
     <row r="7">
@@ -18959,28 +18959,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>583.7426857563858</v>
+        <v>650.8290285753205</v>
       </c>
       <c r="AB7" t="n">
-        <v>798.7024955616341</v>
+        <v>890.4929894470648</v>
       </c>
       <c r="AC7" t="n">
-        <v>722.4754503712239</v>
+        <v>805.5055883489965</v>
       </c>
       <c r="AD7" t="n">
-        <v>583742.6857563858</v>
+        <v>650829.0285753205</v>
       </c>
       <c r="AE7" t="n">
-        <v>798702.4955616341</v>
+        <v>890492.9894470648</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.849779028439864e-06</v>
+        <v>3.335589319879943e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>722475.450371224</v>
+        <v>805505.5883489965</v>
       </c>
     </row>
     <row r="8">
@@ -19065,28 +19065,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>565.5056165680408</v>
+        <v>623.1544947349648</v>
       </c>
       <c r="AB8" t="n">
-        <v>773.7497329354312</v>
+        <v>852.6274713324249</v>
       </c>
       <c r="AC8" t="n">
-        <v>699.9041443886435</v>
+        <v>771.2539021386293</v>
       </c>
       <c r="AD8" t="n">
-        <v>565505.6165680408</v>
+        <v>623154.4947349648</v>
       </c>
       <c r="AE8" t="n">
-        <v>773749.7329354312</v>
+        <v>852627.4713324249</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.864949497134137e-06</v>
+        <v>3.362945264874555e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.84678819444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>699904.1443886436</v>
+        <v>771253.9021386293</v>
       </c>
     </row>
     <row r="9">
@@ -19171,28 +19171,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>565.8052633533778</v>
+        <v>623.4541415203018</v>
       </c>
       <c r="AB9" t="n">
-        <v>774.1597228866125</v>
+        <v>853.0374612836061</v>
       </c>
       <c r="AC9" t="n">
-        <v>700.2750054743085</v>
+        <v>771.6247632242944</v>
       </c>
       <c r="AD9" t="n">
-        <v>565805.2633533778</v>
+        <v>623454.1415203018</v>
       </c>
       <c r="AE9" t="n">
-        <v>774159.7228866125</v>
+        <v>853037.4612836061</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.867393062561402e-06</v>
+        <v>3.367351591585097e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.83159722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>700275.0054743085</v>
+        <v>771624.7632242944</v>
       </c>
     </row>
   </sheetData>
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.3326406386483</v>
+        <v>983.4274434247914</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.874838794616</v>
+        <v>1345.568813850591</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.306433127252</v>
+        <v>1217.149614774381</v>
       </c>
       <c r="AD2" t="n">
-        <v>900332.6406386483</v>
+        <v>983427.4434247913</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231874.838794616</v>
+        <v>1345568.813850591</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441536464713444e-06</v>
+        <v>2.689446266492938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.96788194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114306.433127252</v>
+        <v>1217149.614774381</v>
       </c>
     </row>
     <row r="3">
@@ -19574,28 +19574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>646.9742928037444</v>
+        <v>702.4847053091528</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.2187699054543</v>
+        <v>961.1705652419161</v>
       </c>
       <c r="AC3" t="n">
-        <v>800.7347329180238</v>
+        <v>869.4377955065877</v>
       </c>
       <c r="AD3" t="n">
-        <v>646974.2928037444</v>
+        <v>702484.7053091528</v>
       </c>
       <c r="AE3" t="n">
-        <v>885218.7699054544</v>
+        <v>961170.5652419161</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.749952300454078e-06</v>
+        <v>3.264851633102815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15321180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>800734.7329180238</v>
+        <v>869437.7955065877</v>
       </c>
     </row>
     <row r="4">
@@ -19680,28 +19680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>566.4149818281328</v>
+        <v>621.8400534789696</v>
       </c>
       <c r="AB4" t="n">
-        <v>774.9939666026528</v>
+        <v>850.8289948169167</v>
       </c>
       <c r="AC4" t="n">
-        <v>701.0296301409586</v>
+        <v>769.6270696975838</v>
       </c>
       <c r="AD4" t="n">
-        <v>566414.9818281328</v>
+        <v>621840.0534789696</v>
       </c>
       <c r="AE4" t="n">
-        <v>774993.9666026528</v>
+        <v>850828.9948169168</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.861206843676885e-06</v>
+        <v>3.472417049049776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36545138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>701029.6301409586</v>
+        <v>769627.0696975838</v>
       </c>
     </row>
     <row r="5">
@@ -19786,28 +19786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.1716185247936</v>
+        <v>581.5966901756306</v>
       </c>
       <c r="AB5" t="n">
-        <v>719.9312215191377</v>
+        <v>795.7662497334015</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.2219961671659</v>
+        <v>719.8194357237911</v>
       </c>
       <c r="AD5" t="n">
-        <v>526171.6185247937</v>
+        <v>581596.6901756305</v>
       </c>
       <c r="AE5" t="n">
-        <v>719931.2215191377</v>
+        <v>795766.2497334016</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.912538777823539e-06</v>
+        <v>3.568186030287459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.03559027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>651221.9961671659</v>
+        <v>719819.4357237911</v>
       </c>
     </row>
     <row r="6">
@@ -19892,28 +19892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.8126175221007</v>
+        <v>572.4039793092911</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.8116264052919</v>
+        <v>783.1883771722953</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.4997799554124</v>
+        <v>708.4419776667619</v>
       </c>
       <c r="AD6" t="n">
-        <v>507812.6175221007</v>
+        <v>572403.9793092911</v>
       </c>
       <c r="AE6" t="n">
-        <v>694811.626405292</v>
+        <v>783188.3771722954</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926432338511992e-06</v>
+        <v>3.594106973556336e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.94878472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>628499.7799554124</v>
+        <v>708441.9776667618</v>
       </c>
     </row>
   </sheetData>
@@ -36930,28 +36930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>700.9897125868865</v>
+        <v>772.6389529042565</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.1250502448871</v>
+        <v>1057.158701788507</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.5875015899769</v>
+        <v>956.2649590213681</v>
       </c>
       <c r="AD2" t="n">
-        <v>700989.7125868865</v>
+        <v>772638.9529042565</v>
       </c>
       <c r="AE2" t="n">
-        <v>959125.0502448871</v>
+        <v>1057158.701788507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.613751209749664e-06</v>
+        <v>3.103303420065483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75477430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>867587.5015899769</v>
+        <v>956264.9590213681</v>
       </c>
     </row>
     <row r="3">
@@ -37036,28 +37036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.8061953975889</v>
+        <v>584.4886130684663</v>
       </c>
       <c r="AB3" t="n">
-        <v>713.9582570076203</v>
+        <v>799.7231062180132</v>
       </c>
       <c r="AC3" t="n">
-        <v>645.8190830055194</v>
+        <v>723.3986553789942</v>
       </c>
       <c r="AD3" t="n">
-        <v>521806.1953975889</v>
+        <v>584488.6130684663</v>
       </c>
       <c r="AE3" t="n">
-        <v>713958.2570076203</v>
+        <v>799723.1062180132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.887043361730521e-06</v>
+        <v>3.628854362983636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>645819.0830055194</v>
+        <v>723398.6553789943</v>
       </c>
     </row>
     <row r="4">
@@ -37142,28 +37142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.4197691370888</v>
+        <v>528.1354536700246</v>
       </c>
       <c r="AB4" t="n">
-        <v>649.1220580564204</v>
+        <v>722.6182274031346</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.1707598840452</v>
+        <v>653.6525579808306</v>
       </c>
       <c r="AD4" t="n">
-        <v>474419.7691370888</v>
+        <v>528135.4536700246</v>
       </c>
       <c r="AE4" t="n">
-        <v>649122.0580564204</v>
+        <v>722618.2274031346</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.96318336713988e-06</v>
+        <v>3.77527441693193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>587170.7598840452</v>
+        <v>653652.5579808305</v>
       </c>
     </row>
     <row r="5">
@@ -37248,28 +37248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>476.6618552145693</v>
+        <v>530.377539747505</v>
       </c>
       <c r="AB5" t="n">
-        <v>652.1897791414859</v>
+        <v>725.6859484882001</v>
       </c>
       <c r="AC5" t="n">
-        <v>589.9457019743259</v>
+        <v>656.427500071111</v>
       </c>
       <c r="AD5" t="n">
-        <v>476661.8552145693</v>
+        <v>530377.539747505</v>
       </c>
       <c r="AE5" t="n">
-        <v>652189.7791414859</v>
+        <v>725685.9484882001</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.965597027253721e-06</v>
+        <v>3.779915974838072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.11371527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>589945.7019743258</v>
+        <v>656427.500071111</v>
       </c>
     </row>
   </sheetData>
@@ -37545,28 +37545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.298344875046</v>
+        <v>458.0274712711928</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.337611257754</v>
+        <v>626.6933929391588</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.1959164289664</v>
+        <v>566.882655086746</v>
       </c>
       <c r="AD2" t="n">
-        <v>399298.3448750461</v>
+        <v>458027.4712711928</v>
       </c>
       <c r="AE2" t="n">
-        <v>546337.611257754</v>
+        <v>626693.3929391588</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.970146427688732e-06</v>
+        <v>4.06362268473601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.97092013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>494195.9164289664</v>
+        <v>566882.655086746</v>
       </c>
     </row>
     <row r="3">
@@ -37651,28 +37651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.2356530169582</v>
+        <v>452.964779413105</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.4106129073168</v>
+        <v>619.7663945887216</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.9300210789917</v>
+        <v>560.6167597367713</v>
       </c>
       <c r="AD3" t="n">
-        <v>394235.6530169582</v>
+        <v>452964.779413105</v>
       </c>
       <c r="AE3" t="n">
-        <v>539410.6129073168</v>
+        <v>619766.3945887216</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.991930964723124e-06</v>
+        <v>4.108555456039349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>487930.0210789917</v>
+        <v>560616.7597367713</v>
       </c>
     </row>
   </sheetData>
@@ -37948,28 +37948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1654.321235106566</v>
+        <v>1753.33824346242</v>
       </c>
       <c r="AB2" t="n">
-        <v>2263.51529737478</v>
+        <v>2398.994736529366</v>
       </c>
       <c r="AC2" t="n">
-        <v>2047.488574257002</v>
+        <v>2170.038045885262</v>
       </c>
       <c r="AD2" t="n">
-        <v>1654321.235106566</v>
+        <v>1753338.24346242</v>
       </c>
       <c r="AE2" t="n">
-        <v>2263515.29737478</v>
+        <v>2398994.736529366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060691785212931e-06</v>
+        <v>1.86359362468746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.14756944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2047488.574257002</v>
+        <v>2170038.045885262</v>
       </c>
     </row>
     <row r="3">
@@ -38054,28 +38054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>979.4119381586784</v>
+        <v>1058.608405065606</v>
       </c>
       <c r="AB3" t="n">
-        <v>1340.074622393906</v>
+        <v>1448.434722317496</v>
       </c>
       <c r="AC3" t="n">
-        <v>1212.179781239176</v>
+        <v>1310.198145310414</v>
       </c>
       <c r="AD3" t="n">
-        <v>979411.9381586784</v>
+        <v>1058608.405065606</v>
       </c>
       <c r="AE3" t="n">
-        <v>1340074.622393906</v>
+        <v>1448434.722317496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456567839112845e-06</v>
+        <v>2.55913223495982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.67230902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1212179.781239176</v>
+        <v>1310198.145310414</v>
       </c>
     </row>
     <row r="4">
@@ -38160,28 +38160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>839.9369024503056</v>
+        <v>909.137892041025</v>
       </c>
       <c r="AB4" t="n">
-        <v>1149.238725333406</v>
+        <v>1243.922572223624</v>
       </c>
       <c r="AC4" t="n">
-        <v>1039.556994354266</v>
+        <v>1125.204347786895</v>
       </c>
       <c r="AD4" t="n">
-        <v>839936.9024503056</v>
+        <v>909137.892041025</v>
       </c>
       <c r="AE4" t="n">
-        <v>1149238.725333406</v>
+        <v>1243922.572223624</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>2.81070266763047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1039556.994354266</v>
+        <v>1125204.347786895</v>
       </c>
     </row>
     <row r="5">
@@ -38266,28 +38266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>768.3961576679877</v>
+        <v>837.682398604728</v>
       </c>
       <c r="AB5" t="n">
-        <v>1051.353522167329</v>
+        <v>1146.154013710196</v>
       </c>
       <c r="AC5" t="n">
-        <v>951.0138175956145</v>
+        <v>1036.766683278956</v>
       </c>
       <c r="AD5" t="n">
-        <v>768396.1576679877</v>
+        <v>837682.3986047279</v>
       </c>
       <c r="AE5" t="n">
-        <v>1051353.522167329</v>
+        <v>1146154.013710196</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.674890528539739e-06</v>
+        <v>2.942716587938383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>951013.8175956145</v>
+        <v>1036766.683278956</v>
       </c>
     </row>
     <row r="6">
@@ -38372,28 +38372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>731.2551916209254</v>
+        <v>790.6312960960292</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000.535613877959</v>
+        <v>1081.776619509651</v>
       </c>
       <c r="AC6" t="n">
-        <v>905.0458991499996</v>
+        <v>978.5333772266705</v>
       </c>
       <c r="AD6" t="n">
-        <v>731255.1916209254</v>
+        <v>790631.2960960292</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000535.613877959</v>
+        <v>1081776.619509651</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.720583685009778e-06</v>
+        <v>3.022997661362854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.41970486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>905045.8991499996</v>
+        <v>978533.3772266705</v>
       </c>
     </row>
     <row r="7">
@@ -38478,28 +38478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>704.4093336411869</v>
+        <v>763.7854381162907</v>
       </c>
       <c r="AB7" t="n">
-        <v>963.8039266344144</v>
+        <v>1045.044932266107</v>
       </c>
       <c r="AC7" t="n">
-        <v>871.8198325837321</v>
+        <v>945.3073106604031</v>
       </c>
       <c r="AD7" t="n">
-        <v>704409.3336411869</v>
+        <v>763785.4381162907</v>
       </c>
       <c r="AE7" t="n">
-        <v>963803.9266344145</v>
+        <v>1045044.932266106</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.751012963779697e-06</v>
+        <v>3.076460703794237e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.20486111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>871819.8325837321</v>
+        <v>945307.3106604031</v>
       </c>
     </row>
     <row r="8">
@@ -38584,28 +38584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>679.6109203118397</v>
+        <v>738.9870247869435</v>
       </c>
       <c r="AB8" t="n">
-        <v>929.8736434884181</v>
+        <v>1011.11464912011</v>
       </c>
       <c r="AC8" t="n">
-        <v>841.1278080397381</v>
+        <v>914.6152861164092</v>
       </c>
       <c r="AD8" t="n">
-        <v>679610.9203118397</v>
+        <v>738987.0247869435</v>
       </c>
       <c r="AE8" t="n">
-        <v>929873.6434884181</v>
+        <v>1011114.64912011</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.774548878426981e-06</v>
+        <v>3.117812377390031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.04210069444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>841127.8080397381</v>
+        <v>914615.2861164091</v>
       </c>
     </row>
     <row r="9">
@@ -38690,28 +38690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>648.9106104712442</v>
+        <v>718.1115105534126</v>
       </c>
       <c r="AB9" t="n">
-        <v>887.868125162434</v>
+        <v>982.5518495831036</v>
       </c>
       <c r="AC9" t="n">
-        <v>803.1312374276707</v>
+        <v>888.7784800790735</v>
       </c>
       <c r="AD9" t="n">
-        <v>648910.6104712442</v>
+        <v>718111.5105534126</v>
       </c>
       <c r="AE9" t="n">
-        <v>887868.1251624341</v>
+        <v>982551.8495831036</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.791683812103246e-06</v>
+        <v>3.147917779924208e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>803131.2374276707</v>
+        <v>888778.4800790735</v>
       </c>
     </row>
     <row r="10">
@@ -38796,28 +38796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>629.25928038913</v>
+        <v>688.7206362102544</v>
       </c>
       <c r="AB10" t="n">
-        <v>860.980308388589</v>
+        <v>942.3379586729304</v>
       </c>
       <c r="AC10" t="n">
-        <v>778.8095561494335</v>
+        <v>852.402546476817</v>
       </c>
       <c r="AD10" t="n">
-        <v>629259.28038913</v>
+        <v>688720.6362102544</v>
       </c>
       <c r="AE10" t="n">
-        <v>860980.3083885891</v>
+        <v>942337.9586729304</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.806849213173043e-06</v>
+        <v>3.174562791362502e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.82725694444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>778809.5561494336</v>
+        <v>852402.546476817</v>
       </c>
     </row>
     <row r="11">
@@ -38902,28 +38902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>620.6498236991919</v>
+        <v>680.1111795203163</v>
       </c>
       <c r="AB11" t="n">
-        <v>849.2004699229931</v>
+        <v>930.5581202073345</v>
       </c>
       <c r="AC11" t="n">
-        <v>768.1539689338871</v>
+        <v>841.7469592612703</v>
       </c>
       <c r="AD11" t="n">
-        <v>620649.8236991919</v>
+        <v>680111.1795203163</v>
       </c>
       <c r="AE11" t="n">
-        <v>849200.4699229931</v>
+        <v>930558.1202073345</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.812856287622769e-06</v>
+        <v>3.185116984204944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.78819444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>768153.9689338871</v>
+        <v>841746.9592612702</v>
       </c>
     </row>
     <row r="12">
@@ -39008,28 +39008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>619.2986532787413</v>
+        <v>678.7600090998657</v>
       </c>
       <c r="AB12" t="n">
-        <v>847.3517389443006</v>
+        <v>928.709389228642</v>
       </c>
       <c r="AC12" t="n">
-        <v>766.4816782450906</v>
+        <v>840.0746685724738</v>
       </c>
       <c r="AD12" t="n">
-        <v>619298.6532787413</v>
+        <v>678760.0090998657</v>
       </c>
       <c r="AE12" t="n">
-        <v>847351.7389443006</v>
+        <v>928709.389228642</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.814924296859559e-06</v>
+        <v>3.18875039485562e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.77517361111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>766481.6782450906</v>
+        <v>840074.6685724738</v>
       </c>
     </row>
   </sheetData>
@@ -39305,28 +39305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2376.030627086149</v>
+        <v>2509.212733418408</v>
       </c>
       <c r="AB2" t="n">
-        <v>3250.98992705268</v>
+        <v>3433.215560516342</v>
       </c>
       <c r="AC2" t="n">
-        <v>2940.72001120767</v>
+        <v>3105.554285968834</v>
       </c>
       <c r="AD2" t="n">
-        <v>2376030.627086149</v>
+        <v>2509212.733418408</v>
       </c>
       <c r="AE2" t="n">
-        <v>3250989.92705268</v>
+        <v>3433215.560516342</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.664882051651888e-07</v>
+        <v>1.481598267311198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.76736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2940720.01120767</v>
+        <v>3105554.285968835</v>
       </c>
     </row>
     <row r="3">
@@ -39411,28 +39411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1228.067566971686</v>
+        <v>1310.13082115101</v>
       </c>
       <c r="AB3" t="n">
-        <v>1680.296223647988</v>
+        <v>1792.578788391401</v>
       </c>
       <c r="AC3" t="n">
-        <v>1519.931110373585</v>
+        <v>1621.497584727456</v>
       </c>
       <c r="AD3" t="n">
-        <v>1228067.566971686</v>
+        <v>1310130.82115101</v>
       </c>
       <c r="AE3" t="n">
-        <v>1680296.223647987</v>
+        <v>1792578.788391401</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.300254231428476e-06</v>
+        <v>2.223289832296356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.83767361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1519931.110373585</v>
+        <v>1621497.584727456</v>
       </c>
     </row>
     <row r="4">
@@ -39517,28 +39517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1022.432928449323</v>
+        <v>1094.153024510212</v>
       </c>
       <c r="AB4" t="n">
-        <v>1398.937839261707</v>
+        <v>1497.068438759544</v>
       </c>
       <c r="AC4" t="n">
-        <v>1265.425175304158</v>
+        <v>1354.190328113083</v>
       </c>
       <c r="AD4" t="n">
-        <v>1022432.928449323</v>
+        <v>1094153.024510212</v>
       </c>
       <c r="AE4" t="n">
-        <v>1398937.839261707</v>
+        <v>1497068.438759544</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.465087219312819e-06</v>
+        <v>2.505135872195552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.05598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1265425.175304158</v>
+        <v>1354190.328113083</v>
       </c>
     </row>
     <row r="5">
@@ -39623,28 +39623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>927.5287142935622</v>
+        <v>999.1634694998791</v>
       </c>
       <c r="AB5" t="n">
-        <v>1269.085706575361</v>
+        <v>1367.099538951</v>
       </c>
       <c r="AC5" t="n">
-        <v>1147.965947912784</v>
+        <v>1236.62547768977</v>
       </c>
       <c r="AD5" t="n">
-        <v>927528.7142935622</v>
+        <v>999163.4694998791</v>
       </c>
       <c r="AE5" t="n">
-        <v>1269085.706575361</v>
+        <v>1367099.538951</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.552295921595899e-06</v>
+        <v>2.654253034352927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.26605902777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1147965.947912784</v>
+        <v>1236625.47768977</v>
       </c>
     </row>
     <row r="6">
@@ -39729,28 +39729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>870.1760359040172</v>
+        <v>941.8960424563547</v>
       </c>
       <c r="AB6" t="n">
-        <v>1190.613241781189</v>
+        <v>1288.743718809478</v>
       </c>
       <c r="AC6" t="n">
-        <v>1076.982785021772</v>
+        <v>1165.74782704947</v>
       </c>
       <c r="AD6" t="n">
-        <v>870176.0359040173</v>
+        <v>941896.0424563547</v>
       </c>
       <c r="AE6" t="n">
-        <v>1190613.241781189</v>
+        <v>1288743.718809478</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.603824023162507e-06</v>
+        <v>2.742360345616751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.84071180555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1076982.785021772</v>
+        <v>1165747.82704947</v>
       </c>
     </row>
     <row r="7">
@@ -39835,28 +39835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>837.3263886894861</v>
+        <v>909.0463952418232</v>
       </c>
       <c r="AB7" t="n">
-        <v>1145.666905238113</v>
+        <v>1243.797382266402</v>
       </c>
       <c r="AC7" t="n">
-        <v>1036.326063755788</v>
+        <v>1125.091105783486</v>
       </c>
       <c r="AD7" t="n">
-        <v>837326.3886894861</v>
+        <v>909046.3952418233</v>
       </c>
       <c r="AE7" t="n">
-        <v>1145666.905238114</v>
+        <v>1243797.382266402</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.639884204737666e-06</v>
+        <v>2.804019237477254e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1036326.063755788</v>
+        <v>1125091.105783486</v>
       </c>
     </row>
     <row r="8">
@@ -39941,28 +39941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>812.9677380675089</v>
+        <v>874.4299273559819</v>
       </c>
       <c r="AB8" t="n">
-        <v>1112.338324829303</v>
+        <v>1196.433603734213</v>
       </c>
       <c r="AC8" t="n">
-        <v>1006.178316284237</v>
+        <v>1082.247659798928</v>
       </c>
       <c r="AD8" t="n">
-        <v>812967.7380675089</v>
+        <v>874429.9273559819</v>
       </c>
       <c r="AE8" t="n">
-        <v>1112338.324829303</v>
+        <v>1196433.603734213</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.667024236133706e-06</v>
+        <v>2.85042566661437e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.35243055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1006178.316284237</v>
+        <v>1082247.659798928</v>
       </c>
     </row>
     <row r="9">
@@ -40047,28 +40047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>790.2349007049656</v>
+        <v>851.6970899934385</v>
       </c>
       <c r="AB9" t="n">
-        <v>1081.234253847868</v>
+        <v>1165.329532752778</v>
       </c>
       <c r="AC9" t="n">
-        <v>978.0427741824326</v>
+        <v>1054.112117697123</v>
       </c>
       <c r="AD9" t="n">
-        <v>790234.9007049657</v>
+        <v>851697.0899934385</v>
       </c>
       <c r="AE9" t="n">
-        <v>1081234.253847868</v>
+        <v>1165329.532752778</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.687047126429386e-06</v>
+        <v>2.884662577621123e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>978042.7741824326</v>
+        <v>1054112.117697123</v>
       </c>
     </row>
     <row r="10">
@@ -40153,28 +40153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>773.0637281246677</v>
+        <v>834.5259174131405</v>
       </c>
       <c r="AB10" t="n">
-        <v>1057.739897984834</v>
+        <v>1141.835176889744</v>
       </c>
       <c r="AC10" t="n">
-        <v>956.7906866684316</v>
+        <v>1032.860030183122</v>
       </c>
       <c r="AD10" t="n">
-        <v>773063.7281246677</v>
+        <v>834525.9174131405</v>
       </c>
       <c r="AE10" t="n">
-        <v>1057739.897984834</v>
+        <v>1141835.176889744</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702515046420836e-06</v>
+        <v>2.911110997024444e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>956790.6866684316</v>
+        <v>1032860.030183122</v>
       </c>
     </row>
     <row r="11">
@@ -40259,28 +40259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>756.6427599859468</v>
+        <v>818.1049492744197</v>
       </c>
       <c r="AB11" t="n">
-        <v>1035.272004935451</v>
+        <v>1119.367283840361</v>
       </c>
       <c r="AC11" t="n">
-        <v>936.4670977977953</v>
+        <v>1012.536441312486</v>
       </c>
       <c r="AD11" t="n">
-        <v>756642.7599859468</v>
+        <v>818104.9492744197</v>
       </c>
       <c r="AE11" t="n">
-        <v>1035272.004935451</v>
+        <v>1119367.283840361</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715325900401484e-06</v>
+        <v>2.933016129659097e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>936467.0977977953</v>
+        <v>1012536.441312486</v>
       </c>
     </row>
     <row r="12">
@@ -40365,28 +40365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>730.1835938461682</v>
+        <v>801.8182595439339</v>
       </c>
       <c r="AB12" t="n">
-        <v>999.0694065269788</v>
+        <v>1097.08311643307</v>
       </c>
       <c r="AC12" t="n">
-        <v>903.719624570762</v>
+        <v>992.3790435665215</v>
       </c>
       <c r="AD12" t="n">
-        <v>730183.5938461681</v>
+        <v>801818.2595439339</v>
       </c>
       <c r="AE12" t="n">
-        <v>999069.4065269788</v>
+        <v>1097083.11643307</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.727662278308775e-06</v>
+        <v>2.954109961085058e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.92057291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>903719.624570762</v>
+        <v>992379.0435665215</v>
       </c>
     </row>
     <row r="13">
@@ -40471,28 +40471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>716.43926688325</v>
+        <v>777.9867075177432</v>
       </c>
       <c r="AB13" t="n">
-        <v>980.2638120194031</v>
+        <v>1064.475735576963</v>
       </c>
       <c r="AC13" t="n">
-        <v>886.7088096091717</v>
+        <v>962.8836653745749</v>
       </c>
       <c r="AD13" t="n">
-        <v>716439.26688325</v>
+        <v>777986.7075177432</v>
       </c>
       <c r="AE13" t="n">
-        <v>980263.8120194031</v>
+        <v>1064475.735576963</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.736582428487893e-06</v>
+        <v>2.969362423808446e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.85763888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>886708.8096091717</v>
+        <v>962883.6653745748</v>
       </c>
     </row>
     <row r="14">
@@ -40577,28 +40577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>702.253869899421</v>
+        <v>763.8013105339143</v>
       </c>
       <c r="AB14" t="n">
-        <v>960.8547260505813</v>
+        <v>1045.066649608141</v>
       </c>
       <c r="AC14" t="n">
-        <v>869.1520995643908</v>
+        <v>945.326955329794</v>
       </c>
       <c r="AD14" t="n">
-        <v>702253.869899421</v>
+        <v>763801.3105339142</v>
       </c>
       <c r="AE14" t="n">
-        <v>960854.7260505813</v>
+        <v>1045066.649608141</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.74350977915891e-06</v>
+        <v>2.981207421455332e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.81206597222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>869152.0995643908</v>
+        <v>945326.9553297941</v>
       </c>
     </row>
     <row r="15">
@@ -40683,28 +40683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>693.0934153460586</v>
+        <v>754.6408559805518</v>
       </c>
       <c r="AB15" t="n">
-        <v>948.320987999938</v>
+        <v>1032.532911557498</v>
       </c>
       <c r="AC15" t="n">
-        <v>857.8145638820891</v>
+        <v>933.9894196474924</v>
       </c>
       <c r="AD15" t="n">
-        <v>693093.4153460586</v>
+        <v>754640.8559805518</v>
       </c>
       <c r="AE15" t="n">
-        <v>948320.987999938</v>
+        <v>1032532.911557497</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.747590273389784e-06</v>
+        <v>2.988184611850072e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>857814.5638820891</v>
+        <v>933989.4196474924</v>
       </c>
     </row>
     <row r="16">
@@ -40789,28 +40789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>687.1789051281695</v>
+        <v>748.7263457626628</v>
       </c>
       <c r="AB16" t="n">
-        <v>940.2284941900469</v>
+        <v>1024.440417747606</v>
       </c>
       <c r="AC16" t="n">
-        <v>850.4944063235276</v>
+        <v>926.669262088931</v>
       </c>
       <c r="AD16" t="n">
-        <v>687178.9051281695</v>
+        <v>748726.3457626628</v>
       </c>
       <c r="AE16" t="n">
-        <v>940228.4941900469</v>
+        <v>1024440.417747606</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.751955453264672e-06</v>
+        <v>2.995648582970029e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.75564236111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>850494.4063235277</v>
+        <v>926669.2620889309</v>
       </c>
     </row>
     <row r="17">
@@ -40895,28 +40895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>689.5328696761001</v>
+        <v>751.0803103105933</v>
       </c>
       <c r="AB17" t="n">
-        <v>943.449292334112</v>
+        <v>1027.661215891672</v>
       </c>
       <c r="AC17" t="n">
-        <v>853.4078160131419</v>
+        <v>929.5826717785451</v>
       </c>
       <c r="AD17" t="n">
-        <v>689532.8696761001</v>
+        <v>751080.3103105933</v>
       </c>
       <c r="AE17" t="n">
-        <v>943449.292334112</v>
+        <v>1027661.215891672</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>2.995161802244814e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.75564236111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>853407.8160131419</v>
+        <v>929582.6717785451</v>
       </c>
     </row>
     <row r="18">
@@ -41001,28 +41001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>692.4220399429723</v>
+        <v>753.9694805774656</v>
       </c>
       <c r="AB18" t="n">
-        <v>947.402382554443</v>
+        <v>1031.614306112003</v>
       </c>
       <c r="AC18" t="n">
-        <v>856.9836288510414</v>
+        <v>933.1584846164445</v>
       </c>
       <c r="AD18" t="n">
-        <v>692422.0399429724</v>
+        <v>753969.4805774656</v>
       </c>
       <c r="AE18" t="n">
-        <v>947402.382554443</v>
+        <v>1031614.306112003</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>2.995161802244814e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.75564236111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>856983.6288510414</v>
+        <v>933158.4846164446</v>
       </c>
     </row>
   </sheetData>
@@ -41298,28 +41298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.6707973246897</v>
+        <v>416.6362965919205</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.1174524553435</v>
+        <v>570.0601616932279</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.1504534841873</v>
+        <v>515.6544199456874</v>
       </c>
       <c r="AD2" t="n">
-        <v>359670.7973246897</v>
+        <v>416636.2965919205</v>
       </c>
       <c r="AE2" t="n">
-        <v>492117.4524553436</v>
+        <v>570060.1616932278</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94217736265701e-06</v>
+        <v>4.162980636541597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62413194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>445150.4534841873</v>
+        <v>515654.4199456874</v>
       </c>
     </row>
   </sheetData>
@@ -41595,28 +41595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1010.998778706487</v>
+        <v>1095.31763362763</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.293131144473</v>
+        <v>1498.661908332924</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.273576172147</v>
+        <v>1355.631719186828</v>
       </c>
       <c r="AD2" t="n">
-        <v>1010998.778706487</v>
+        <v>1095317.63362763</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383293.131144473</v>
+        <v>1498661.908332924</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.366074215974854e-06</v>
+        <v>2.516899580878796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251273.576172147</v>
+        <v>1355631.719186828</v>
       </c>
     </row>
     <row r="3">
@@ -41701,28 +41701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.5915221475515</v>
+        <v>766.0686377725151</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.5802285188664</v>
+        <v>1048.168906763412</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.0946768848256</v>
+        <v>948.1331374162118</v>
       </c>
       <c r="AD3" t="n">
-        <v>700591.5221475515</v>
+        <v>766068.6377725151</v>
       </c>
       <c r="AE3" t="n">
-        <v>958580.2285188665</v>
+        <v>1048168.906763413</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69371882366219e-06</v>
+        <v>3.120562666033339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.39192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>867094.6768848256</v>
+        <v>948133.1374162118</v>
       </c>
     </row>
     <row r="4">
@@ -41807,28 +41807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>614.2390394506997</v>
+        <v>670.5938441557479</v>
       </c>
       <c r="AB4" t="n">
-        <v>840.4289520903658</v>
+        <v>917.5360820863287</v>
       </c>
       <c r="AC4" t="n">
-        <v>760.219592452303</v>
+        <v>829.9677261819882</v>
       </c>
       <c r="AD4" t="n">
-        <v>614239.0394506997</v>
+        <v>670593.8441557479</v>
       </c>
       <c r="AE4" t="n">
-        <v>840428.9520903658</v>
+        <v>917536.0820863288</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808890867576526e-06</v>
+        <v>3.332759386875541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>760219.592452303</v>
+        <v>829967.7261819881</v>
       </c>
     </row>
     <row r="5">
@@ -41913,28 +41913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>570.0178787972987</v>
+        <v>626.2020913017544</v>
       </c>
       <c r="AB5" t="n">
-        <v>779.923609184462</v>
+        <v>856.7973274055781</v>
       </c>
       <c r="AC5" t="n">
-        <v>705.4887945535564</v>
+        <v>775.0257930005906</v>
       </c>
       <c r="AD5" t="n">
-        <v>570017.8787972988</v>
+        <v>626202.0913017545</v>
       </c>
       <c r="AE5" t="n">
-        <v>779923.609184462</v>
+        <v>856797.3274055781</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.869298709121432e-06</v>
+        <v>3.444056759513285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.13324652777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>705488.7945535565</v>
+        <v>775025.7930005906</v>
       </c>
     </row>
     <row r="6">
@@ -42019,28 +42019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>530.9481680962753</v>
+        <v>596.4251942126878</v>
       </c>
       <c r="AB6" t="n">
-        <v>726.4667073693336</v>
+        <v>816.0552631443313</v>
       </c>
       <c r="AC6" t="n">
-        <v>657.1337444204313</v>
+        <v>738.1720941705909</v>
       </c>
       <c r="AD6" t="n">
-        <v>530948.1680962753</v>
+        <v>596425.1942126878</v>
       </c>
       <c r="AE6" t="n">
-        <v>726466.7073693336</v>
+        <v>816055.2631443313</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.899607141730468e-06</v>
+        <v>3.499898001840181e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>657133.7444204313</v>
+        <v>738172.0941705909</v>
       </c>
     </row>
     <row r="7">
@@ -42125,28 +42125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>528.063620305693</v>
+        <v>593.5406464221055</v>
       </c>
       <c r="AB7" t="n">
-        <v>722.5199418249917</v>
+        <v>812.1084975999894</v>
       </c>
       <c r="AC7" t="n">
-        <v>653.5636526403212</v>
+        <v>734.6020023904808</v>
       </c>
       <c r="AD7" t="n">
-        <v>528063.620305693</v>
+        <v>593540.6464221055</v>
       </c>
       <c r="AE7" t="n">
-        <v>722519.9418249917</v>
+        <v>812108.4975999894</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904832733559612e-06</v>
+        <v>3.509525802241369e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>653563.6526403212</v>
+        <v>734602.0023904808</v>
       </c>
     </row>
   </sheetData>
@@ -42422,28 +42422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1368.201876812839</v>
+        <v>1465.254178367292</v>
       </c>
       <c r="AB2" t="n">
-        <v>1872.03416866208</v>
+        <v>2004.825409294242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1693.369855021428</v>
+        <v>1813.487686021334</v>
       </c>
       <c r="AD2" t="n">
-        <v>1368201.876812839</v>
+        <v>1465254.178367292</v>
       </c>
       <c r="AE2" t="n">
-        <v>1872034.16866208</v>
+        <v>2004825.409294243</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.171950223784063e-06</v>
+        <v>2.093603547877977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1693369.855021428</v>
+        <v>1813487.686021334</v>
       </c>
     </row>
     <row r="3">
@@ -42528,28 +42528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>870.4086721117066</v>
+        <v>938.3197704520026</v>
       </c>
       <c r="AB3" t="n">
-        <v>1190.931544903735</v>
+        <v>1283.850505679138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1077.270709741043</v>
+        <v>1161.321615312622</v>
       </c>
       <c r="AD3" t="n">
-        <v>870408.6721117066</v>
+        <v>938319.7704520025</v>
       </c>
       <c r="AE3" t="n">
-        <v>1190931.544903735</v>
+        <v>1283850.505679138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543649728090607e-06</v>
+        <v>2.757617586330905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.14713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1077270.709741043</v>
+        <v>1161321.615312622</v>
       </c>
     </row>
     <row r="4">
@@ -42634,28 +42634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>755.2909584598748</v>
+        <v>813.5736334138402</v>
       </c>
       <c r="AB4" t="n">
-        <v>1033.422410450204</v>
+        <v>1113.167337572369</v>
       </c>
       <c r="AC4" t="n">
-        <v>934.7940260142989</v>
+        <v>1006.928209214632</v>
       </c>
       <c r="AD4" t="n">
-        <v>755290.9584598747</v>
+        <v>813573.6334138402</v>
       </c>
       <c r="AE4" t="n">
-        <v>1033422.410450204</v>
+        <v>1113167.337572369</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676270179275238e-06</v>
+        <v>2.994534343959751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>934794.0260142989</v>
+        <v>1006928.209214632</v>
       </c>
     </row>
     <row r="5">
@@ -42740,28 +42740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>691.566115466774</v>
+        <v>749.7634495661675</v>
       </c>
       <c r="AB5" t="n">
-        <v>946.2312689253854</v>
+        <v>1025.859428925352</v>
       </c>
       <c r="AC5" t="n">
-        <v>855.9242846630729</v>
+        <v>927.9528448314672</v>
       </c>
       <c r="AD5" t="n">
-        <v>691566.115466774</v>
+        <v>749763.4495661675</v>
       </c>
       <c r="AE5" t="n">
-        <v>946231.2689253854</v>
+        <v>1025859.428925352</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.747007794740181e-06</v>
+        <v>3.120901931678323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>855924.2846630729</v>
+        <v>927952.8448314673</v>
       </c>
     </row>
     <row r="6">
@@ -42846,28 +42846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.2611857223289</v>
+        <v>716.4585198217226</v>
       </c>
       <c r="AB6" t="n">
-        <v>900.661994739234</v>
+        <v>980.2901547392009</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.7040780483698</v>
+        <v>886.7326382167641</v>
       </c>
       <c r="AD6" t="n">
-        <v>658261.185722329</v>
+        <v>716458.5198217225</v>
       </c>
       <c r="AE6" t="n">
-        <v>900661.9947392341</v>
+        <v>980290.154739201</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.786351191108308e-06</v>
+        <v>3.191186038076563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.22439236111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>814704.0780483697</v>
+        <v>886732.6382167642</v>
       </c>
     </row>
     <row r="7">
@@ -42952,28 +42952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>630.8194801015435</v>
+        <v>689.016814200937</v>
       </c>
       <c r="AB7" t="n">
-        <v>863.1150424662663</v>
+        <v>942.7432024662331</v>
       </c>
       <c r="AC7" t="n">
-        <v>780.7405542028557</v>
+        <v>852.76911437125</v>
       </c>
       <c r="AD7" t="n">
-        <v>630819.4801015435</v>
+        <v>689016.814200937</v>
       </c>
       <c r="AE7" t="n">
-        <v>863115.0424662663</v>
+        <v>942743.2024662332</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.815431092771705e-06</v>
+        <v>3.243135160197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.02907986111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>780740.5542028557</v>
+        <v>852769.11437125</v>
       </c>
     </row>
     <row r="8">
@@ -43058,28 +43058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>597.3827920821941</v>
+        <v>665.2084600593676</v>
       </c>
       <c r="AB8" t="n">
-        <v>817.3654907956263</v>
+        <v>910.1675619792832</v>
       </c>
       <c r="AC8" t="n">
-        <v>739.3572755337622</v>
+        <v>823.302447292176</v>
       </c>
       <c r="AD8" t="n">
-        <v>597382.7920821941</v>
+        <v>665208.4600593676</v>
       </c>
       <c r="AE8" t="n">
-        <v>817365.4907956263</v>
+        <v>910167.5619792831</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.836360572169583e-06</v>
+        <v>3.280524147743889e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.89019097222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>739357.2755337622</v>
+        <v>823302.447292176</v>
       </c>
     </row>
     <row r="9">
@@ -43164,28 +43164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>584.4883565558032</v>
+        <v>642.7709420012175</v>
       </c>
       <c r="AB9" t="n">
-        <v>799.7227552460712</v>
+        <v>879.4675598986873</v>
       </c>
       <c r="AC9" t="n">
-        <v>723.3983379033218</v>
+        <v>795.5324103224286</v>
       </c>
       <c r="AD9" t="n">
-        <v>584488.3565558032</v>
+        <v>642770.9420012175</v>
       </c>
       <c r="AE9" t="n">
-        <v>799722.7552460711</v>
+        <v>879467.5598986873</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.846523444377207e-06</v>
+        <v>3.298679377273869e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.82508680555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>723398.3379033218</v>
+        <v>795532.4103224287</v>
       </c>
     </row>
     <row r="10">
@@ -43270,28 +43270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>584.0203303295669</v>
+        <v>642.3029157749811</v>
       </c>
       <c r="AB10" t="n">
-        <v>799.0823811154747</v>
+        <v>878.8271857680909</v>
       </c>
       <c r="AC10" t="n">
-        <v>722.8190801809789</v>
+        <v>794.9531526000856</v>
       </c>
       <c r="AD10" t="n">
-        <v>584020.330329567</v>
+        <v>642302.9157749811</v>
       </c>
       <c r="AE10" t="n">
-        <v>799082.3811154747</v>
+        <v>878827.1857680909</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.848435271822206e-06</v>
+        <v>3.30209471748248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.81423611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>722819.0801809789</v>
+        <v>794953.1526000856</v>
       </c>
     </row>
   </sheetData>
